--- a/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>3.659870344059186</v>
       </c>
       <c r="C2">
-        <v>0.7125446084526175</v>
+        <v>0.7125446084525322</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1465583797695693</v>
+        <v>0.1465583797695729</v>
       </c>
       <c r="F2">
         <v>2.070767655121031</v>
       </c>
       <c r="G2">
-        <v>1.598709862409962</v>
+        <v>1.598709862409933</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3347929428498304</v>
+        <v>0.3347929428498446</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.1522119693783</v>
+        <v>3.152211969378186</v>
       </c>
       <c r="C3">
-        <v>0.6166741742267732</v>
+        <v>0.6166741742267163</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1265189445140074</v>
+        <v>0.126518944514018</v>
       </c>
       <c r="F3">
         <v>1.793833852016846</v>
       </c>
       <c r="G3">
-        <v>1.41631726500384</v>
+        <v>1.416317265003826</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.128310979977126</v>
+        <v>0.1283109799771402</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2889653910417067</v>
+        <v>0.2889653910416854</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.845404240399034</v>
+        <v>2.845404240398807</v>
       </c>
       <c r="C4">
-        <v>0.5586245688348299</v>
+        <v>0.5586245688345457</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1143619332975199</v>
+        <v>0.1143619332975163</v>
       </c>
       <c r="F4">
-        <v>1.628195947639256</v>
+        <v>1.62819594763927</v>
       </c>
       <c r="G4">
-        <v>1.309321875925903</v>
+        <v>1.309321875925889</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1241731418391048</v>
+        <v>0.1241731418391012</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2611814717063581</v>
+        <v>0.2611814717063865</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.721408686082384</v>
+        <v>2.721408686082611</v>
       </c>
       <c r="C5">
-        <v>0.5351346817119236</v>
+        <v>0.5351346817122078</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1094387747505294</v>
+        <v>0.1094387747505721</v>
       </c>
       <c r="F5">
-        <v>1.56166151311092</v>
+        <v>1.561661513110934</v>
       </c>
       <c r="G5">
         <v>1.266829321084799</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.12261282043535</v>
+        <v>0.1226128204353643</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2499326434585214</v>
+        <v>0.2499326434585072</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.7008761187152</v>
+        <v>2.700876118715314</v>
       </c>
       <c r="C6">
-        <v>0.5312431488329139</v>
+        <v>0.5312431488329423</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1086229874668696</v>
+        <v>0.1086229874668767</v>
       </c>
       <c r="F6">
-        <v>1.550667851612147</v>
+        <v>1.550667851612133</v>
       </c>
       <c r="G6">
-        <v>1.259836409918734</v>
+        <v>1.259836409918719</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1223609167255333</v>
+        <v>0.1223609167255475</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2480687817692839</v>
+        <v>0.2480687817692981</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>2.843728068238818</v>
       </c>
       <c r="C7">
-        <v>0.5583071535329225</v>
+        <v>0.558307153533093</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1142954203321054</v>
+        <v>0.1142954203321267</v>
       </c>
       <c r="F7">
-        <v>1.627294914927731</v>
+        <v>1.627294914927717</v>
       </c>
       <c r="G7">
         <v>1.308744500463462</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1241516081397478</v>
+        <v>0.1241516081397265</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.483686301612465</v>
+        <v>3.483686301612408</v>
       </c>
       <c r="C8">
-        <v>0.6792943292257689</v>
+        <v>0.6792943292255984</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.139614348350598</v>
+        <v>0.1396143483505909</v>
       </c>
       <c r="F8">
-        <v>1.974277680647248</v>
+        <v>1.974277680647262</v>
       </c>
       <c r="G8">
-        <v>1.534691228992841</v>
+        <v>1.534691228992855</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1331992667226025</v>
+        <v>0.1331992667226203</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.318908051778017</v>
+        <v>0.3189080517780525</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.787772572478502</v>
+        <v>4.787772572478445</v>
       </c>
       <c r="C9">
-        <v>0.9250420714560619</v>
+        <v>0.925042071456005</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1907437729261687</v>
+        <v>0.190743772926119</v>
       </c>
       <c r="F9">
-        <v>2.696832900656545</v>
+        <v>2.696832900656574</v>
       </c>
       <c r="G9">
         <v>2.02488868965483</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1561863959678682</v>
+        <v>0.1561863959678895</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4360260153179993</v>
+        <v>0.4360260153179709</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.792428861301005</v>
+        <v>5.792428861300834</v>
       </c>
       <c r="C10">
-        <v>1.114059855833091</v>
+        <v>1.114059855833119</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2297041355307883</v>
+        <v>0.2297041355308309</v>
       </c>
       <c r="F10">
-        <v>3.264851043912358</v>
+        <v>3.26485104391233</v>
       </c>
       <c r="G10">
         <v>2.425782524106324</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.177562934273336</v>
+        <v>0.1775629342733751</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5255731653336184</v>
+        <v>0.5255731653336326</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.264053972241868</v>
+        <v>6.264053972241811</v>
       </c>
       <c r="C11">
-        <v>1.202783206138776</v>
+        <v>1.202783206138548</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2478613679193984</v>
+        <v>0.247861367919441</v>
       </c>
       <c r="F11">
-        <v>3.534372498635861</v>
+        <v>3.534372498635832</v>
       </c>
       <c r="G11">
-        <v>2.620241940854456</v>
+        <v>2.620241940854413</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1886182334283006</v>
+        <v>0.1886182334283113</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5674166439752497</v>
+        <v>0.5674166439752284</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.44519463676744</v>
+        <v>6.445194636767667</v>
       </c>
       <c r="C12">
-        <v>1.236864812596224</v>
+        <v>1.236864812596167</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2548121957306009</v>
+        <v>0.2548121957306151</v>
       </c>
       <c r="F12">
-        <v>3.638335499886978</v>
+        <v>3.638335499887035</v>
       </c>
       <c r="G12">
-        <v>2.69594253434903</v>
+        <v>2.695942534349058</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1930326005985883</v>
+        <v>0.1930326005986203</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5834554088866568</v>
+        <v>0.583455408886671</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.406061558975068</v>
+        <v>6.406061558975182</v>
       </c>
       <c r="C13">
-        <v>1.229501591800613</v>
+        <v>1.229501591800897</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2533116488293885</v>
+        <v>0.2533116488292961</v>
       </c>
       <c r="F13">
         <v>3.615855340651791</v>
       </c>
       <c r="G13">
-        <v>2.679541536774792</v>
+        <v>2.679541536774821</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1920710916609458</v>
+        <v>0.1920710916609885</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5799919604553097</v>
+        <v>0.5799919604552812</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.278902656700495</v>
+        <v>6.278902656700382</v>
       </c>
       <c r="C14">
         <v>1.205576845913612</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2484316325420792</v>
+        <v>0.2484316325421503</v>
       </c>
       <c r="F14">
         <v>3.542885599887882</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1889766031138009</v>
+        <v>0.188976603113808</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5687320678364713</v>
+        <v>0.5687320678364927</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.201360338619168</v>
+        <v>6.201360338619395</v>
       </c>
       <c r="C15">
-        <v>1.190988230689584</v>
+        <v>1.190988230689612</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2454526679480793</v>
+        <v>0.2454526679480509</v>
       </c>
       <c r="F15">
         <v>3.498446857747069</v>
       </c>
       <c r="G15">
-        <v>2.594171198451278</v>
+        <v>2.594171198451264</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1871120300157756</v>
+        <v>0.1871120300157827</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5618613746566865</v>
+        <v>0.5618613746566652</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.761937387642206</v>
+        <v>5.76193738764232</v>
       </c>
       <c r="C16">
-        <v>1.108324037480429</v>
+        <v>1.108324037480571</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2285272910879499</v>
+        <v>0.2285272910879641</v>
       </c>
       <c r="F16">
-        <v>3.24748575612972</v>
+        <v>3.247485756129748</v>
       </c>
       <c r="G16">
-        <v>2.413343950993237</v>
+        <v>2.413343950993294</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1768702020569854</v>
+        <v>0.1768702020569997</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5228636934530257</v>
+        <v>0.52286369345304</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.496400684074615</v>
+        <v>5.496400684074672</v>
       </c>
       <c r="C17">
-        <v>1.058372992549778</v>
+        <v>1.058372992550204</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2182637110527921</v>
+        <v>0.2182637110527992</v>
       </c>
       <c r="F17">
-        <v>3.096578943664582</v>
+        <v>3.096578943664554</v>
       </c>
       <c r="G17">
-        <v>2.305723344099135</v>
+        <v>2.30572334409915</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1709520469876047</v>
+        <v>0.1709520469875905</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4992463473618898</v>
+        <v>0.4992463473618756</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>5.345014679320855</v>
       </c>
       <c r="C18">
-        <v>1.029893970431857</v>
+        <v>1.029893970431658</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2124003577600249</v>
+        <v>0.2124003577600178</v>
       </c>
       <c r="F18">
         <v>3.01080813006098</v>
       </c>
       <c r="G18">
-        <v>2.244938560976934</v>
+        <v>2.244938560976919</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1676708170257761</v>
+        <v>0.1676708170257974</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4857642262449318</v>
+        <v>0.4857642262449389</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.293976328483723</v>
+        <v>5.293976328483836</v>
       </c>
       <c r="C19">
-        <v>1.020292156489234</v>
+        <v>1.020292156489262</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2104216386222291</v>
+        <v>0.210421638622222</v>
       </c>
       <c r="F19">
-        <v>2.981935537053602</v>
+        <v>2.98193553705363</v>
       </c>
       <c r="G19">
-        <v>2.224540482500629</v>
+        <v>2.224540482500615</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1665799213353374</v>
+        <v>0.1665799213353445</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4812159663137123</v>
+        <v>0.481215966313691</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>5.524525452420278</v>
       </c>
       <c r="C20">
-        <v>1.063663733215861</v>
+        <v>1.063663733215833</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.219352062370028</v>
+        <v>0.2193520623699996</v>
       </c>
       <c r="F20">
-        <v>3.112534930851325</v>
+        <v>3.112534930851268</v>
       </c>
       <c r="G20">
-        <v>2.317062087312436</v>
+        <v>2.317062087312422</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.171569098294956</v>
+        <v>0.1715690982949738</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5017496719789278</v>
+        <v>0.5017496719789207</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.316179257072804</v>
+        <v>6.316179257072861</v>
       </c>
       <c r="C21">
-        <v>1.212590188703416</v>
+        <v>1.212590188703587</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2498628634039335</v>
+        <v>0.2498628634039193</v>
       </c>
       <c r="F21">
         <v>3.564264346916531</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.189879016574654</v>
+        <v>0.1898790165746718</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5720338178233533</v>
+        <v>0.5720338178233604</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.848679433590974</v>
+        <v>6.848679433590917</v>
       </c>
       <c r="C22">
-        <v>1.312797587426246</v>
+        <v>1.312797587426473</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2702483979903292</v>
+        <v>0.2702483979903221</v>
       </c>
       <c r="F22">
-        <v>3.870753245830571</v>
+        <v>3.870753245830599</v>
       </c>
       <c r="G22">
-        <v>2.866532236704387</v>
+        <v>2.866532236704415</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2031966648395667</v>
+        <v>0.2031966648395631</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6191168734937094</v>
+        <v>0.6191168734936952</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.562923175016635</v>
+        <v>6.562923175016863</v>
       </c>
       <c r="C23">
-        <v>1.25901770501585</v>
+        <v>1.259017705016106</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2593228288236276</v>
+        <v>0.2593228288236205</v>
       </c>
       <c r="F23">
         <v>3.706031645118287</v>
       </c>
       <c r="G23">
-        <v>2.745438191176447</v>
+        <v>2.745438191176504</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1959511863247272</v>
+        <v>0.1959511863247307</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5938698605361878</v>
+        <v>0.5938698605361807</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.511806307301924</v>
+        <v>5.511806307301754</v>
       </c>
       <c r="C24">
         <v>1.061271053077377</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2188599034396574</v>
+        <v>0.2188599034397001</v>
       </c>
       <c r="F24">
-        <v>3.105318175219963</v>
+        <v>3.105318175219992</v>
       </c>
       <c r="G24">
-        <v>2.311932477204266</v>
+        <v>2.311932477204252</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1712897545679049</v>
+        <v>0.1712897545679297</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5006176230110029</v>
+        <v>0.5006176230109958</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.42815094442517</v>
+        <v>4.428150944425113</v>
       </c>
       <c r="C25">
-        <v>0.8573411973577549</v>
+        <v>0.8573411973576128</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1767063406931015</v>
+        <v>0.1767063406931086</v>
       </c>
       <c r="F25">
-        <v>2.495758598609427</v>
+        <v>2.495758598609456</v>
       </c>
       <c r="G25">
-        <v>1.886092918317559</v>
+        <v>1.886092918317544</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1492851410699849</v>
+        <v>0.1492851410700347</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4038320421239661</v>
+        <v>0.4038320421239732</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>3.659870344059186</v>
       </c>
       <c r="C2">
-        <v>0.7125446084525322</v>
+        <v>0.7125446084526175</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1465583797695729</v>
+        <v>0.1465583797695693</v>
       </c>
       <c r="F2">
         <v>2.070767655121031</v>
       </c>
       <c r="G2">
-        <v>1.598709862409933</v>
+        <v>1.598709862409962</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3347929428498446</v>
+        <v>0.3347929428498304</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.152211969378186</v>
+        <v>3.1522119693783</v>
       </c>
       <c r="C3">
-        <v>0.6166741742267163</v>
+        <v>0.6166741742267732</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.126518944514018</v>
+        <v>0.1265189445140074</v>
       </c>
       <c r="F3">
         <v>1.793833852016846</v>
       </c>
       <c r="G3">
-        <v>1.416317265003826</v>
+        <v>1.41631726500384</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1283109799771402</v>
+        <v>0.128310979977126</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2889653910416854</v>
+        <v>0.2889653910417067</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.845404240398807</v>
+        <v>2.845404240399034</v>
       </c>
       <c r="C4">
-        <v>0.5586245688345457</v>
+        <v>0.5586245688348299</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1143619332975163</v>
+        <v>0.1143619332975199</v>
       </c>
       <c r="F4">
-        <v>1.62819594763927</v>
+        <v>1.628195947639256</v>
       </c>
       <c r="G4">
-        <v>1.309321875925889</v>
+        <v>1.309321875925903</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1241731418391012</v>
+        <v>0.1241731418391048</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2611814717063865</v>
+        <v>0.2611814717063581</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.721408686082611</v>
+        <v>2.721408686082384</v>
       </c>
       <c r="C5">
-        <v>0.5351346817122078</v>
+        <v>0.5351346817119236</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1094387747505721</v>
+        <v>0.1094387747505294</v>
       </c>
       <c r="F5">
-        <v>1.561661513110934</v>
+        <v>1.56166151311092</v>
       </c>
       <c r="G5">
         <v>1.266829321084799</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1226128204353643</v>
+        <v>0.12261282043535</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2499326434585072</v>
+        <v>0.2499326434585214</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.700876118715314</v>
+        <v>2.7008761187152</v>
       </c>
       <c r="C6">
-        <v>0.5312431488329423</v>
+        <v>0.5312431488329139</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1086229874668767</v>
+        <v>0.1086229874668696</v>
       </c>
       <c r="F6">
-        <v>1.550667851612133</v>
+        <v>1.550667851612147</v>
       </c>
       <c r="G6">
-        <v>1.259836409918719</v>
+        <v>1.259836409918734</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1223609167255475</v>
+        <v>0.1223609167255333</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2480687817692981</v>
+        <v>0.2480687817692839</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>2.843728068238818</v>
       </c>
       <c r="C7">
-        <v>0.558307153533093</v>
+        <v>0.5583071535329225</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1142954203321267</v>
+        <v>0.1142954203321054</v>
       </c>
       <c r="F7">
-        <v>1.627294914927717</v>
+        <v>1.627294914927731</v>
       </c>
       <c r="G7">
         <v>1.308744500463462</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1241516081397265</v>
+        <v>0.1241516081397478</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.483686301612408</v>
+        <v>3.483686301612465</v>
       </c>
       <c r="C8">
-        <v>0.6792943292255984</v>
+        <v>0.6792943292257689</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1396143483505909</v>
+        <v>0.139614348350598</v>
       </c>
       <c r="F8">
-        <v>1.974277680647262</v>
+        <v>1.974277680647248</v>
       </c>
       <c r="G8">
-        <v>1.534691228992855</v>
+        <v>1.534691228992841</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1331992667226203</v>
+        <v>0.1331992667226025</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3189080517780525</v>
+        <v>0.318908051778017</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.787772572478445</v>
+        <v>4.787772572478502</v>
       </c>
       <c r="C9">
-        <v>0.925042071456005</v>
+        <v>0.9250420714560619</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.190743772926119</v>
+        <v>0.1907437729261687</v>
       </c>
       <c r="F9">
-        <v>2.696832900656574</v>
+        <v>2.696832900656545</v>
       </c>
       <c r="G9">
         <v>2.02488868965483</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1561863959678895</v>
+        <v>0.1561863959678682</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4360260153179709</v>
+        <v>0.4360260153179993</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.792428861300834</v>
+        <v>5.792428861301005</v>
       </c>
       <c r="C10">
-        <v>1.114059855833119</v>
+        <v>1.114059855833091</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2297041355308309</v>
+        <v>0.2297041355307883</v>
       </c>
       <c r="F10">
-        <v>3.26485104391233</v>
+        <v>3.264851043912358</v>
       </c>
       <c r="G10">
         <v>2.425782524106324</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1775629342733751</v>
+        <v>0.177562934273336</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5255731653336326</v>
+        <v>0.5255731653336184</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.264053972241811</v>
+        <v>6.264053972241868</v>
       </c>
       <c r="C11">
-        <v>1.202783206138548</v>
+        <v>1.202783206138776</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.247861367919441</v>
+        <v>0.2478613679193984</v>
       </c>
       <c r="F11">
-        <v>3.534372498635832</v>
+        <v>3.534372498635861</v>
       </c>
       <c r="G11">
-        <v>2.620241940854413</v>
+        <v>2.620241940854456</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1886182334283113</v>
+        <v>0.1886182334283006</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5674166439752284</v>
+        <v>0.5674166439752497</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.445194636767667</v>
+        <v>6.44519463676744</v>
       </c>
       <c r="C12">
-        <v>1.236864812596167</v>
+        <v>1.236864812596224</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2548121957306151</v>
+        <v>0.2548121957306009</v>
       </c>
       <c r="F12">
-        <v>3.638335499887035</v>
+        <v>3.638335499886978</v>
       </c>
       <c r="G12">
-        <v>2.695942534349058</v>
+        <v>2.69594253434903</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1930326005986203</v>
+        <v>0.1930326005985883</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.583455408886671</v>
+        <v>0.5834554088866568</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.406061558975182</v>
+        <v>6.406061558975068</v>
       </c>
       <c r="C13">
-        <v>1.229501591800897</v>
+        <v>1.229501591800613</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2533116488292961</v>
+        <v>0.2533116488293885</v>
       </c>
       <c r="F13">
         <v>3.615855340651791</v>
       </c>
       <c r="G13">
-        <v>2.679541536774821</v>
+        <v>2.679541536774792</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1920710916609885</v>
+        <v>0.1920710916609458</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5799919604552812</v>
+        <v>0.5799919604553097</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.278902656700382</v>
+        <v>6.278902656700495</v>
       </c>
       <c r="C14">
         <v>1.205576845913612</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2484316325421503</v>
+        <v>0.2484316325420792</v>
       </c>
       <c r="F14">
         <v>3.542885599887882</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.188976603113808</v>
+        <v>0.1889766031138009</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5687320678364927</v>
+        <v>0.5687320678364713</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.201360338619395</v>
+        <v>6.201360338619168</v>
       </c>
       <c r="C15">
-        <v>1.190988230689612</v>
+        <v>1.190988230689584</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2454526679480509</v>
+        <v>0.2454526679480793</v>
       </c>
       <c r="F15">
         <v>3.498446857747069</v>
       </c>
       <c r="G15">
-        <v>2.594171198451264</v>
+        <v>2.594171198451278</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1871120300157827</v>
+        <v>0.1871120300157756</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5618613746566652</v>
+        <v>0.5618613746566865</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.76193738764232</v>
+        <v>5.761937387642206</v>
       </c>
       <c r="C16">
-        <v>1.108324037480571</v>
+        <v>1.108324037480429</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2285272910879641</v>
+        <v>0.2285272910879499</v>
       </c>
       <c r="F16">
-        <v>3.247485756129748</v>
+        <v>3.24748575612972</v>
       </c>
       <c r="G16">
-        <v>2.413343950993294</v>
+        <v>2.413343950993237</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1768702020569997</v>
+        <v>0.1768702020569854</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.52286369345304</v>
+        <v>0.5228636934530257</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.496400684074672</v>
+        <v>5.496400684074615</v>
       </c>
       <c r="C17">
-        <v>1.058372992550204</v>
+        <v>1.058372992549778</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2182637110527992</v>
+        <v>0.2182637110527921</v>
       </c>
       <c r="F17">
-        <v>3.096578943664554</v>
+        <v>3.096578943664582</v>
       </c>
       <c r="G17">
-        <v>2.30572334409915</v>
+        <v>2.305723344099135</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1709520469875905</v>
+        <v>0.1709520469876047</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4992463473618756</v>
+        <v>0.4992463473618898</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>5.345014679320855</v>
       </c>
       <c r="C18">
-        <v>1.029893970431658</v>
+        <v>1.029893970431857</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2124003577600178</v>
+        <v>0.2124003577600249</v>
       </c>
       <c r="F18">
         <v>3.01080813006098</v>
       </c>
       <c r="G18">
-        <v>2.244938560976919</v>
+        <v>2.244938560976934</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1676708170257974</v>
+        <v>0.1676708170257761</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4857642262449389</v>
+        <v>0.4857642262449318</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.293976328483836</v>
+        <v>5.293976328483723</v>
       </c>
       <c r="C19">
-        <v>1.020292156489262</v>
+        <v>1.020292156489234</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.210421638622222</v>
+        <v>0.2104216386222291</v>
       </c>
       <c r="F19">
-        <v>2.98193553705363</v>
+        <v>2.981935537053602</v>
       </c>
       <c r="G19">
-        <v>2.224540482500615</v>
+        <v>2.224540482500629</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1665799213353445</v>
+        <v>0.1665799213353374</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.481215966313691</v>
+        <v>0.4812159663137123</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>5.524525452420278</v>
       </c>
       <c r="C20">
-        <v>1.063663733215833</v>
+        <v>1.063663733215861</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2193520623699996</v>
+        <v>0.219352062370028</v>
       </c>
       <c r="F20">
-        <v>3.112534930851268</v>
+        <v>3.112534930851325</v>
       </c>
       <c r="G20">
-        <v>2.317062087312422</v>
+        <v>2.317062087312436</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1715690982949738</v>
+        <v>0.171569098294956</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5017496719789207</v>
+        <v>0.5017496719789278</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.316179257072861</v>
+        <v>6.316179257072804</v>
       </c>
       <c r="C21">
-        <v>1.212590188703587</v>
+        <v>1.212590188703416</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2498628634039193</v>
+        <v>0.2498628634039335</v>
       </c>
       <c r="F21">
         <v>3.564264346916531</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1898790165746718</v>
+        <v>0.189879016574654</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5720338178233604</v>
+        <v>0.5720338178233533</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.848679433590917</v>
+        <v>6.848679433590974</v>
       </c>
       <c r="C22">
-        <v>1.312797587426473</v>
+        <v>1.312797587426246</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2702483979903221</v>
+        <v>0.2702483979903292</v>
       </c>
       <c r="F22">
-        <v>3.870753245830599</v>
+        <v>3.870753245830571</v>
       </c>
       <c r="G22">
-        <v>2.866532236704415</v>
+        <v>2.866532236704387</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2031966648395631</v>
+        <v>0.2031966648395667</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6191168734936952</v>
+        <v>0.6191168734937094</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.562923175016863</v>
+        <v>6.562923175016635</v>
       </c>
       <c r="C23">
-        <v>1.259017705016106</v>
+        <v>1.25901770501585</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2593228288236205</v>
+        <v>0.2593228288236276</v>
       </c>
       <c r="F23">
         <v>3.706031645118287</v>
       </c>
       <c r="G23">
-        <v>2.745438191176504</v>
+        <v>2.745438191176447</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1959511863247307</v>
+        <v>0.1959511863247272</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5938698605361807</v>
+        <v>0.5938698605361878</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.511806307301754</v>
+        <v>5.511806307301924</v>
       </c>
       <c r="C24">
         <v>1.061271053077377</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2188599034397001</v>
+        <v>0.2188599034396574</v>
       </c>
       <c r="F24">
-        <v>3.105318175219992</v>
+        <v>3.105318175219963</v>
       </c>
       <c r="G24">
-        <v>2.311932477204252</v>
+        <v>2.311932477204266</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1712897545679297</v>
+        <v>0.1712897545679049</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5006176230109958</v>
+        <v>0.5006176230110029</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.428150944425113</v>
+        <v>4.42815094442517</v>
       </c>
       <c r="C25">
-        <v>0.8573411973576128</v>
+        <v>0.8573411973577549</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1767063406931086</v>
+        <v>0.1767063406931015</v>
       </c>
       <c r="F25">
-        <v>2.495758598609456</v>
+        <v>2.495758598609427</v>
       </c>
       <c r="G25">
-        <v>1.886092918317544</v>
+        <v>1.886092918317559</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1492851410700347</v>
+        <v>0.1492851410699849</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4038320421239732</v>
+        <v>0.4038320421239661</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.659870344059186</v>
+        <v>3.659629025053391</v>
       </c>
       <c r="C2">
-        <v>0.7125446084526175</v>
+        <v>0.7122607446350742</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1465583797695693</v>
+        <v>0.1469208347960738</v>
       </c>
       <c r="F2">
-        <v>2.070767655121031</v>
+        <v>2.068216523774453</v>
       </c>
       <c r="G2">
-        <v>1.598709862409962</v>
+        <v>0.5168755455405716</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.079674356695762</v>
       </c>
       <c r="I2">
-        <v>0.1359644455826121</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1353019532760094</v>
       </c>
       <c r="K2">
-        <v>0.3347929428498304</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3352174852126879</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.1522119693783</v>
+        <v>3.152068253971549</v>
       </c>
       <c r="C3">
-        <v>0.6166741742267732</v>
+        <v>0.6164512122931001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1265189445140074</v>
+        <v>0.1268351147840967</v>
       </c>
       <c r="F3">
-        <v>1.793833852016846</v>
+        <v>1.791615704895918</v>
       </c>
       <c r="G3">
-        <v>1.41631726500384</v>
+        <v>0.4529481415032137</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9620731946001797</v>
       </c>
       <c r="I3">
-        <v>0.128310979977126</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1277246143756052</v>
       </c>
       <c r="K3">
-        <v>0.2889653910417067</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.289338138061737</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.845404240399034</v>
+        <v>2.845309964103706</v>
       </c>
       <c r="C4">
-        <v>0.5586245688348299</v>
+        <v>0.5584364608300803</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1143619332975199</v>
+        <v>0.1146498863660526</v>
       </c>
       <c r="F4">
-        <v>1.628195947639256</v>
+        <v>1.626177018592159</v>
       </c>
       <c r="G4">
-        <v>1.309321875925903</v>
+        <v>0.4153235992962436</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8932193059856957</v>
       </c>
       <c r="I4">
-        <v>0.1241731418391048</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1236320635225283</v>
       </c>
       <c r="K4">
-        <v>0.2611814717063581</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2615222208093542</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.721408686082384</v>
+        <v>2.721332295317382</v>
       </c>
       <c r="C5">
-        <v>0.5351346817119236</v>
+        <v>0.5349602408475107</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1094387747505294</v>
+        <v>0.1097152690590448</v>
       </c>
       <c r="F5">
-        <v>1.56166151311092</v>
+        <v>1.559722693880232</v>
       </c>
       <c r="G5">
-        <v>1.266829321084799</v>
+        <v>0.4003507047111157</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8659074659098849</v>
       </c>
       <c r="I5">
-        <v>0.12261282043535</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1220898908925534</v>
       </c>
       <c r="K5">
-        <v>0.2499326434585214</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.250260306288574</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.7008761187152</v>
+        <v>2.700802571323379</v>
       </c>
       <c r="C6">
-        <v>0.5312431488329139</v>
+        <v>0.5310709477603268</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1086229874668696</v>
+        <v>0.1088975811705239</v>
       </c>
       <c r="F6">
-        <v>1.550667851612147</v>
+        <v>1.54874227627451</v>
       </c>
       <c r="G6">
-        <v>1.259836409918734</v>
+        <v>0.3978848096296161</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8614148017439334</v>
       </c>
       <c r="I6">
-        <v>0.1223609167255333</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1218409838920991</v>
       </c>
       <c r="K6">
-        <v>0.2480687817692839</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2483942688496157</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.843728068238818</v>
+        <v>2.843634041848645</v>
       </c>
       <c r="C7">
-        <v>0.5583071535329225</v>
+        <v>0.5581192318928174</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1142954203321054</v>
+        <v>0.1145832187156977</v>
       </c>
       <c r="F7">
-        <v>1.627294914927731</v>
+        <v>1.625277070315491</v>
       </c>
       <c r="G7">
-        <v>1.308744500463462</v>
+        <v>0.4151202766607298</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8928480667102718</v>
       </c>
       <c r="I7">
-        <v>0.1241516081397478</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1236107757497891</v>
       </c>
       <c r="K7">
-        <v>0.261029488838993</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2613700616434471</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.483686301612465</v>
+        <v>3.483481056650476</v>
       </c>
       <c r="C8">
-        <v>0.6792943292257689</v>
+        <v>0.6790320576760962</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.139614348350598</v>
+        <v>0.1399607957763429</v>
       </c>
       <c r="F8">
-        <v>1.974277680647248</v>
+        <v>1.971842605676827</v>
       </c>
       <c r="G8">
-        <v>1.534691228992841</v>
+        <v>0.4944641547837563</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.038368207874711</v>
       </c>
       <c r="I8">
-        <v>0.1331992667226025</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.132563363131915</v>
       </c>
       <c r="K8">
-        <v>0.318908051778017</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3193147773753395</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.787772572478502</v>
+        <v>4.787245828650214</v>
       </c>
       <c r="C9">
-        <v>0.9250420714560619</v>
+        <v>0.9246083826599545</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1907437729261687</v>
+        <v>0.1912073622606414</v>
       </c>
       <c r="F9">
-        <v>2.696832900656545</v>
+        <v>2.693525139123494</v>
       </c>
       <c r="G9">
-        <v>2.02488868965483</v>
+        <v>0.6655027243354112</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.355266798323598</v>
       </c>
       <c r="I9">
-        <v>0.1561863959678682</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1553493694223285</v>
       </c>
       <c r="K9">
-        <v>0.4360260153179993</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.4365607419376332</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.792428861301005</v>
+        <v>5.791568394175101</v>
       </c>
       <c r="C10">
-        <v>1.114059855833091</v>
+        <v>1.113475339243848</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2297041355307883</v>
+        <v>0.2302558951620384</v>
       </c>
       <c r="F10">
-        <v>3.264851043912358</v>
+        <v>3.260846945997855</v>
       </c>
       <c r="G10">
-        <v>2.425782524106324</v>
+        <v>0.8046498287900761</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.615220445040165</v>
       </c>
       <c r="I10">
-        <v>0.177562934273336</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1765639149551212</v>
       </c>
       <c r="K10">
-        <v>0.5255731653336184</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.5262004722069662</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.264053972241868</v>
+        <v>6.263010378722981</v>
       </c>
       <c r="C11">
-        <v>1.202783206138776</v>
+        <v>1.202121973839496</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2478613679193984</v>
+        <v>0.2484538936268521</v>
       </c>
       <c r="F11">
-        <v>3.534372498635861</v>
+        <v>3.530033286303649</v>
       </c>
       <c r="G11">
-        <v>2.620241940854456</v>
+        <v>0.8719742370915355</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.741497256822512</v>
       </c>
       <c r="I11">
-        <v>0.1886182334283006</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.187540921791701</v>
       </c>
       <c r="K11">
-        <v>0.5674166439752497</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.5680855846176698</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.44519463676744</v>
+        <v>6.444076093887986</v>
       </c>
       <c r="C12">
-        <v>1.236864812596224</v>
+        <v>1.236173074270994</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2548121957306009</v>
+        <v>0.2554202708884432</v>
       </c>
       <c r="F12">
-        <v>3.638335499886978</v>
+        <v>3.633866069537277</v>
       </c>
       <c r="G12">
-        <v>2.69594253434903</v>
+        <v>0.8981571514886895</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.790682412389046</v>
       </c>
       <c r="I12">
-        <v>0.1930326005985883</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1919248198569967</v>
       </c>
       <c r="K12">
-        <v>0.5834554088866568</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.5841400237375254</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.406061558975068</v>
+        <v>6.404959427366975</v>
       </c>
       <c r="C13">
-        <v>1.229501591800613</v>
+        <v>1.228816493576602</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2533116488293885</v>
+        <v>0.2539163698459888</v>
       </c>
       <c r="F13">
-        <v>3.615855340651791</v>
+        <v>3.61141411511997</v>
       </c>
       <c r="G13">
-        <v>2.679541536774792</v>
+        <v>0.8924856153577423</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.780024927286206</v>
       </c>
       <c r="I13">
-        <v>0.1920710916609458</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1909699124526156</v>
       </c>
       <c r="K13">
-        <v>0.5799919604553097</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.5806732041088694</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.278902656700495</v>
+        <v>6.277853016595486</v>
       </c>
       <c r="C14">
-        <v>1.205576845913612</v>
+        <v>1.204913134937584</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2484316325420792</v>
+        <v>0.2490254351562839</v>
       </c>
       <c r="F14">
-        <v>3.542885599887882</v>
+        <v>3.538535745371718</v>
       </c>
       <c r="G14">
-        <v>2.626426471271387</v>
+        <v>0.8741138245441675</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.745515003296433</v>
       </c>
       <c r="I14">
-        <v>0.1889766031138009</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1878968022721814</v>
       </c>
       <c r="K14">
-        <v>0.5687320678364713</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5694023000001707</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.201360338619168</v>
+        <v>6.200342084240731</v>
       </c>
       <c r="C15">
-        <v>1.190988230689584</v>
+        <v>1.190337420725257</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2454526679480793</v>
+        <v>0.246039797891271</v>
       </c>
       <c r="F15">
-        <v>3.498446857747069</v>
+        <v>3.494152515805382</v>
       </c>
       <c r="G15">
-        <v>2.594171198451278</v>
+        <v>0.8629538265601724</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.724561632728282</v>
       </c>
       <c r="I15">
-        <v>0.1871120300157756</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1860452117119955</v>
       </c>
       <c r="K15">
-        <v>0.5618613746566865</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.5625248492267119</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.761937387642206</v>
+        <v>5.761088169783761</v>
       </c>
       <c r="C16">
-        <v>1.108324037480429</v>
+        <v>1.107744348040001</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2285272910879499</v>
+        <v>0.229076401265111</v>
       </c>
       <c r="F16">
-        <v>3.24748575612972</v>
+        <v>3.24350313485246</v>
       </c>
       <c r="G16">
-        <v>2.413343950993237</v>
+        <v>0.8003399954061337</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.607146819238537</v>
       </c>
       <c r="I16">
-        <v>0.1768702020569854</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1758761938459052</v>
       </c>
       <c r="K16">
-        <v>0.5228636934530257</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.523488268047636</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.496400684074615</v>
+        <v>5.495646438141421</v>
       </c>
       <c r="C17">
-        <v>1.058372992549778</v>
+        <v>1.057834670977797</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2182637110527921</v>
+        <v>0.2187896777836897</v>
       </c>
       <c r="F17">
-        <v>3.096578943664582</v>
+        <v>3.092782415821091</v>
       </c>
       <c r="G17">
-        <v>2.305723344099135</v>
+        <v>0.7630320148909675</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.537312290665355</v>
       </c>
       <c r="I17">
-        <v>0.1709520469876047</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1700014235910743</v>
       </c>
       <c r="K17">
-        <v>0.4992463473618898</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4998469213392127</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.345014679320855</v>
+        <v>5.344312190195126</v>
       </c>
       <c r="C18">
-        <v>1.029893970431857</v>
+        <v>1.029378700549472</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2124003577600249</v>
+        <v>0.2129130736810154</v>
       </c>
       <c r="F18">
-        <v>3.01080813006098</v>
+        <v>3.007116959656656</v>
       </c>
       <c r="G18">
-        <v>2.244938560976934</v>
+        <v>0.7419448259441879</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.4978857845569</v>
       </c>
       <c r="I18">
-        <v>0.1676708170257761</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.166744725697054</v>
       </c>
       <c r="K18">
-        <v>0.4857642262449318</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4863509521325682</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.293976328483723</v>
+        <v>5.29329090018166</v>
       </c>
       <c r="C19">
-        <v>1.020292156489234</v>
+        <v>1.019784571888863</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2104216386222291</v>
+        <v>0.2109298779523243</v>
       </c>
       <c r="F19">
-        <v>2.981935537053602</v>
+        <v>2.978279768898517</v>
       </c>
       <c r="G19">
-        <v>2.224540482500629</v>
+        <v>0.7348657967076093</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.484657890083511</v>
       </c>
       <c r="I19">
-        <v>0.1665799213353374</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1656620680419003</v>
       </c>
       <c r="K19">
-        <v>0.4812159663137123</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4817979965451897</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.524525452420278</v>
+        <v>5.52376140061682</v>
       </c>
       <c r="C20">
-        <v>1.063663733215861</v>
+        <v>1.06312108665611</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.219352062370028</v>
+        <v>0.219880486355116</v>
       </c>
       <c r="F20">
-        <v>3.112534930851325</v>
+        <v>3.108718771217951</v>
       </c>
       <c r="G20">
-        <v>2.317062087312436</v>
+        <v>0.7669643401140291</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.544668227533435</v>
       </c>
       <c r="I20">
-        <v>0.171569098294956</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1706139012085153</v>
       </c>
       <c r="K20">
-        <v>0.5017496719789278</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.5023528055081812</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.316179257072804</v>
+        <v>6.315114361095482</v>
       </c>
       <c r="C21">
-        <v>1.212590188703416</v>
+        <v>1.21192023792338</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2498628634039335</v>
+        <v>0.2504598698233593</v>
       </c>
       <c r="F21">
-        <v>3.564264346916531</v>
+        <v>3.559887750737801</v>
       </c>
       <c r="G21">
-        <v>2.641968801173917</v>
+        <v>0.8794904077201977</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.755612426850917</v>
       </c>
       <c r="I21">
-        <v>0.189879016574654</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1887929601346521</v>
       </c>
       <c r="K21">
-        <v>0.5720338178233533</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.5727072870357404</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.848679433590974</v>
+        <v>6.847384541562747</v>
       </c>
       <c r="C22">
-        <v>1.312797587426246</v>
+        <v>1.312035765241319</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2702483979903292</v>
+        <v>0.2708908903566325</v>
       </c>
       <c r="F22">
-        <v>3.870753245830571</v>
+        <v>3.865990599259618</v>
       </c>
       <c r="G22">
-        <v>2.866532236704387</v>
+        <v>0.957111846156522</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.90157076285378</v>
       </c>
       <c r="I22">
-        <v>0.2031966648395667</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2020201940857405</v>
       </c>
       <c r="K22">
-        <v>0.6191168734937094</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.6198357599936983</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.562923175016635</v>
+        <v>6.561754526514278</v>
       </c>
       <c r="C23">
-        <v>1.25901770501585</v>
+        <v>1.258305824189279</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2593228288236276</v>
+        <v>0.2599409775538319</v>
       </c>
       <c r="F23">
-        <v>3.706031645118287</v>
+        <v>3.701477117275061</v>
       </c>
       <c r="G23">
-        <v>2.745438191176447</v>
+        <v>0.9152691976230329</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.822849022765638</v>
       </c>
       <c r="I23">
-        <v>0.1959511863247272</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1948234814452725</v>
       </c>
       <c r="K23">
-        <v>0.5938698605361878</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5945645672122311</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.511806307301924</v>
+        <v>5.511046697510551</v>
       </c>
       <c r="C24">
-        <v>1.061271053077377</v>
+        <v>1.060730364101175</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2188599034396574</v>
+        <v>0.2193872163313273</v>
       </c>
       <c r="F24">
-        <v>3.105318175219963</v>
+        <v>3.101510896146578</v>
       </c>
       <c r="G24">
-        <v>2.311932477204266</v>
+        <v>0.7651854174030888</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.541340374309627</v>
       </c>
       <c r="I24">
-        <v>0.1712897545679049</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1703366265133184</v>
       </c>
       <c r="K24">
-        <v>0.5006176230110029</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.5012195995205744</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.42815094442517</v>
+        <v>4.427725398733685</v>
       </c>
       <c r="C25">
-        <v>0.8573411973577549</v>
+        <v>0.856957475851118</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1767063406931015</v>
+        <v>0.1771379326839124</v>
       </c>
       <c r="F25">
-        <v>2.495758598609427</v>
+        <v>2.49269477749823</v>
       </c>
       <c r="G25">
-        <v>1.886092918317559</v>
+        <v>0.6171927576641565</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.265411699898166</v>
       </c>
       <c r="I25">
-        <v>0.1492851410699849</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1485045842761465</v>
       </c>
       <c r="K25">
-        <v>0.4038320421239661</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.4043323571122031</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.659629025053391</v>
+        <v>5.197271237335087</v>
       </c>
       <c r="C2">
-        <v>0.7122607446350742</v>
+        <v>0.9577361101714246</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1469208347960738</v>
+        <v>0.0230244822873269</v>
       </c>
       <c r="F2">
-        <v>2.068216523774453</v>
+        <v>2.85337465687175</v>
       </c>
       <c r="G2">
-        <v>0.5168755455405716</v>
+        <v>0.0008104017435358677</v>
       </c>
       <c r="H2">
-        <v>1.079674356695762</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1353019532760094</v>
+        <v>0.1133132704287405</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3352174852126879</v>
+        <v>0.2224844618318116</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.408580726628287</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.152068253971549</v>
+        <v>4.537701932519667</v>
       </c>
       <c r="C3">
-        <v>0.6164512122931001</v>
+        <v>0.821197230216967</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1268351147840967</v>
+        <v>0.0210327407350368</v>
       </c>
       <c r="F3">
-        <v>1.791615704895918</v>
+        <v>2.621863106675988</v>
       </c>
       <c r="G3">
-        <v>0.4529481415032137</v>
+        <v>0.000821604037138772</v>
       </c>
       <c r="H3">
-        <v>0.9620731946001797</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1277246143756052</v>
+        <v>0.1124893018074467</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.289338138061737</v>
+        <v>0.1988383727165086</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.441105133248811</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.845309964103706</v>
+        <v>4.142743662127259</v>
       </c>
       <c r="C4">
-        <v>0.5584364608300803</v>
+        <v>0.7392957068726389</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1146498863660526</v>
+        <v>0.01985702326441618</v>
       </c>
       <c r="F4">
-        <v>1.626177018592159</v>
+        <v>2.485952149608565</v>
       </c>
       <c r="G4">
-        <v>0.4153235992962436</v>
+        <v>0.0008286388109911744</v>
       </c>
       <c r="H4">
-        <v>0.8932193059856957</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1236320635225283</v>
+        <v>0.112266150597474</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2615222208093542</v>
+        <v>0.1846165052874582</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.463362315054781</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.721332295317382</v>
+        <v>3.98399125990835</v>
       </c>
       <c r="C5">
-        <v>0.5349602408475107</v>
+        <v>0.7063316101043711</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1097152690590448</v>
+        <v>0.01938751834757912</v>
       </c>
       <c r="F5">
-        <v>1.559722693880232</v>
+        <v>2.431979155212474</v>
       </c>
       <c r="G5">
-        <v>0.4003507047111157</v>
+        <v>0.0008315478251554215</v>
       </c>
       <c r="H5">
-        <v>0.8659074659098849</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1220898908925534</v>
+        <v>0.1122399852455018</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.250260306288574</v>
+        <v>0.1788881804849325</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.472969931396264</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.700802571323379</v>
+        <v>3.957754354343137</v>
       </c>
       <c r="C6">
-        <v>0.5310709477603268</v>
+        <v>0.7008807553477254</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1088975811705239</v>
+        <v>0.01931007690388853</v>
       </c>
       <c r="F6">
-        <v>1.54874227627451</v>
+        <v>2.423097955358429</v>
       </c>
       <c r="G6">
-        <v>0.3978848096296161</v>
+        <v>0.0008320334990895335</v>
       </c>
       <c r="H6">
-        <v>0.8614148017439334</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1218409838920991</v>
+        <v>0.1122393806540281</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2483942688496157</v>
+        <v>0.1779408503782776</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.474596716957876</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.843634041848645</v>
+        <v>4.14059418276986</v>
       </c>
       <c r="C7">
-        <v>0.5581192318928174</v>
+        <v>0.7388495689124568</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1145832187156977</v>
+        <v>0.01985065523687179</v>
       </c>
       <c r="F7">
-        <v>1.625277070315491</v>
+        <v>2.485218730636362</v>
       </c>
       <c r="G7">
-        <v>0.4151202766607298</v>
+        <v>0.0008286778679725454</v>
       </c>
       <c r="H7">
-        <v>0.8928480667102718</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1236107757497891</v>
+        <v>0.1122655433247921</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2613700616434471</v>
+        <v>0.1845389883536583</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.463489756608354</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.483481056650476</v>
+        <v>4.967566751996173</v>
       </c>
       <c r="C8">
-        <v>0.6790320576760962</v>
+        <v>0.9102084785294267</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1399607957763429</v>
+        <v>0.02232647297025547</v>
       </c>
       <c r="F8">
-        <v>1.971842605676827</v>
+        <v>2.77215534105494</v>
       </c>
       <c r="G8">
-        <v>0.4944641547837563</v>
+        <v>0.0008142336640571419</v>
       </c>
       <c r="H8">
-        <v>1.038368207874711</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.132563363131915</v>
+        <v>0.1129664316109</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3193147773753395</v>
+        <v>0.2142649368269218</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.419296668611622</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.787245828650214</v>
+        <v>6.685362876827639</v>
       </c>
       <c r="C9">
-        <v>0.9246083826599545</v>
+        <v>1.265450884647407</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1912073622606414</v>
+        <v>0.02767611460476171</v>
       </c>
       <c r="F9">
-        <v>2.693525139123494</v>
+        <v>3.392347436499563</v>
       </c>
       <c r="G9">
-        <v>0.6655027243354112</v>
+        <v>0.0007870010092819229</v>
       </c>
       <c r="H9">
-        <v>1.355266798323598</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1553493694223285</v>
+        <v>0.116913933091638</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4365607419376332</v>
+        <v>0.2752941349640992</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.352699086041213</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.791568394175101</v>
+        <v>8.03287192197655</v>
       </c>
       <c r="C10">
-        <v>1.113475339243848</v>
+        <v>1.544449445559053</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2302558951620384</v>
+        <v>0.03210949338957203</v>
       </c>
       <c r="F10">
-        <v>3.260846945997855</v>
+        <v>3.895962654835046</v>
       </c>
       <c r="G10">
-        <v>0.8046498287900761</v>
+        <v>0.0007674184851834868</v>
       </c>
       <c r="H10">
-        <v>1.615220445040165</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1765639149551212</v>
+        <v>0.1219249942280527</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5262004722069662</v>
+        <v>0.322409939404821</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.319102431716189</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.263010378722981</v>
+        <v>8.671722278017796</v>
       </c>
       <c r="C11">
-        <v>1.202121973839496</v>
+        <v>1.677005472141218</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2484538936268521</v>
+        <v>0.03429321476481029</v>
       </c>
       <c r="F11">
-        <v>3.530033286303649</v>
+        <v>4.138962896065323</v>
       </c>
       <c r="G11">
-        <v>0.8719742370915355</v>
+        <v>0.0007585373678580254</v>
       </c>
       <c r="H11">
-        <v>1.741497256822512</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.187540921791701</v>
+        <v>0.1248141550302861</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5680855846176698</v>
+        <v>0.3445006207315231</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.307993216801719</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.444076093887986</v>
+        <v>8.918092387837419</v>
       </c>
       <c r="C12">
-        <v>1.236173074270994</v>
+        <v>1.728187514535193</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2554202708884432</v>
+        <v>0.03515024798816668</v>
       </c>
       <c r="F12">
-        <v>3.633866069537277</v>
+        <v>4.233330078831216</v>
       </c>
       <c r="G12">
-        <v>0.8981571514886895</v>
+        <v>0.0007551716870349954</v>
       </c>
       <c r="H12">
-        <v>1.790682412389046</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1919248198569967</v>
+        <v>0.1260115534379551</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5841400237375254</v>
+        <v>0.3529763305866993</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.30447294714493</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.404959427366975</v>
+        <v>8.864821136176147</v>
       </c>
       <c r="C13">
-        <v>1.228816493576602</v>
+        <v>1.717117555147809</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2539163698459888</v>
+        <v>0.03496422027108537</v>
       </c>
       <c r="F13">
-        <v>3.61141411511997</v>
+        <v>4.21289576753486</v>
       </c>
       <c r="G13">
-        <v>0.8924856153577423</v>
+        <v>0.000755896777697729</v>
       </c>
       <c r="H13">
-        <v>1.780024927286206</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1909699124526156</v>
+        <v>0.1257487933537291</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5806732041088694</v>
+        <v>0.3511457417457962</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.305199022857948</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.277853016595486</v>
+        <v>8.691897424785793</v>
       </c>
       <c r="C14">
-        <v>1.204913134937584</v>
+        <v>1.681195370312821</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2490254351562839</v>
+        <v>0.03436308042218883</v>
       </c>
       <c r="F14">
-        <v>3.538535745371718</v>
+        <v>4.146677263376887</v>
       </c>
       <c r="G14">
-        <v>0.8741138245441675</v>
+        <v>0.0007582605644449458</v>
       </c>
       <c r="H14">
-        <v>1.745515003296433</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1878968022721814</v>
+        <v>0.12491049389034</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5694023000001707</v>
+        <v>0.34519560870676</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.307689292554457</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.200342084240731</v>
+        <v>8.586580293229645</v>
       </c>
       <c r="C15">
-        <v>1.190337420725257</v>
+        <v>1.659326144052386</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.246039797891271</v>
+        <v>0.03399898875728447</v>
       </c>
       <c r="F15">
-        <v>3.494152515805382</v>
+        <v>4.106433713639717</v>
       </c>
       <c r="G15">
-        <v>0.8629538265601724</v>
+        <v>0.0007597079023025346</v>
       </c>
       <c r="H15">
-        <v>1.724561632728282</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1860452117119955</v>
+        <v>0.124410986223296</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5625248492267119</v>
+        <v>0.3415658794318546</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.309306889605651</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.761088169783761</v>
+        <v>7.99170172124451</v>
       </c>
       <c r="C16">
-        <v>1.107744348040001</v>
+        <v>1.535914317512265</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.229076401265111</v>
+        <v>0.03197063414500168</v>
       </c>
       <c r="F16">
-        <v>3.24350313485246</v>
+        <v>3.880390293572447</v>
       </c>
       <c r="G16">
-        <v>0.8003399954061337</v>
+        <v>0.0007679989021381464</v>
       </c>
       <c r="H16">
-        <v>1.607146819238537</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1758761938459052</v>
+        <v>0.1217497200191247</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.523488268047636</v>
+        <v>0.3209807947967249</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.319919475765147</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.495646438141421</v>
+        <v>7.633869520788721</v>
       </c>
       <c r="C17">
-        <v>1.057834670977797</v>
+        <v>1.461764293958993</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2187896777836897</v>
+        <v>0.03077301731284887</v>
       </c>
       <c r="F17">
-        <v>3.092782415821091</v>
+        <v>3.745511321540818</v>
       </c>
       <c r="G17">
-        <v>0.7630320148909675</v>
+        <v>0.0007730878178988613</v>
       </c>
       <c r="H17">
-        <v>1.537312290665355</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1700014235910743</v>
+        <v>0.1202834960629389</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4998469213392127</v>
+        <v>0.3085314614482542</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.327555842740637</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.344312190195126</v>
+        <v>7.430437591946259</v>
       </c>
       <c r="C18">
-        <v>1.029378700549472</v>
+        <v>1.419633702640851</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2129130736810154</v>
+        <v>0.03009946301390887</v>
       </c>
       <c r="F18">
-        <v>3.007116959656656</v>
+        <v>3.66921711822107</v>
       </c>
       <c r="G18">
-        <v>0.7419448259441879</v>
+        <v>0.00077601782276129</v>
       </c>
       <c r="H18">
-        <v>1.4978857845569</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.166744725697054</v>
+        <v>0.119496445786055</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4863509521325682</v>
+        <v>0.3014317322191715</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.332334992952454</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.29329090018166</v>
+        <v>7.361948119617011</v>
       </c>
       <c r="C19">
-        <v>1.019784571888863</v>
+        <v>1.405453229469742</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2109298779523243</v>
+        <v>0.02987386836139105</v>
       </c>
       <c r="F19">
-        <v>2.978279768898517</v>
+        <v>3.643596143601059</v>
       </c>
       <c r="G19">
-        <v>0.7348657967076093</v>
+        <v>0.0007770105664826977</v>
       </c>
       <c r="H19">
-        <v>1.484657890083511</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1656620680419003</v>
+        <v>0.1192392005426655</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4817979965451897</v>
+        <v>0.2990378829383076</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.334017193702365</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.52376140061682</v>
+        <v>7.671709759201804</v>
       </c>
       <c r="C20">
-        <v>1.06312108665611</v>
+        <v>1.4696028539488</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.219880486355116</v>
+        <v>0.03089888376498884</v>
       </c>
       <c r="F20">
-        <v>3.108718771217951</v>
+        <v>3.759734123129903</v>
       </c>
       <c r="G20">
-        <v>0.7669643401140291</v>
+        <v>0.0007725458276771707</v>
       </c>
       <c r="H20">
-        <v>1.544668227533435</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1706139012085153</v>
+        <v>0.1204336489413294</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5023528055081812</v>
+        <v>0.3098503145177744</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.326702316821056</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.315114361095482</v>
+        <v>8.742562018759145</v>
       </c>
       <c r="C21">
-        <v>1.21192023792338</v>
+        <v>1.691718270589831</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2504598698233593</v>
+        <v>0.0345387775693613</v>
       </c>
       <c r="F21">
-        <v>3.559887750737801</v>
+        <v>4.166060429612628</v>
       </c>
       <c r="G21">
-        <v>0.8794904077201977</v>
+        <v>0.0007575663908407738</v>
       </c>
       <c r="H21">
-        <v>1.755612426850917</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1887929601346521</v>
+        <v>0.1251537779425078</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5727072870357404</v>
+        <v>0.34694016999903</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.306938441705938</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.847384541562747</v>
+        <v>9.468811296009562</v>
       </c>
       <c r="C22">
-        <v>1.312035765241319</v>
+        <v>1.842736689808362</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2708908903566325</v>
+        <v>0.03709698533596573</v>
       </c>
       <c r="F22">
-        <v>3.865990599259618</v>
+        <v>4.445513974659661</v>
       </c>
       <c r="G22">
-        <v>0.957111846156522</v>
+        <v>0.0007477574527794127</v>
       </c>
       <c r="H22">
-        <v>1.90157076285378</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2020201940857405</v>
+        <v>0.1288506349571392</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6198357599936983</v>
+        <v>0.3718336440743855</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.298075372669885</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.561754526514278</v>
+        <v>9.078506666368867</v>
       </c>
       <c r="C23">
-        <v>1.258305824189279</v>
+        <v>1.761532995395669</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2599409775538319</v>
+        <v>0.03571283694064675</v>
       </c>
       <c r="F23">
-        <v>3.701477117275061</v>
+        <v>4.294961081254144</v>
       </c>
       <c r="G23">
-        <v>0.9152691976230329</v>
+        <v>0.0007529968624592607</v>
       </c>
       <c r="H23">
-        <v>1.822849022765638</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1948234814452725</v>
+        <v>0.1268155306133991</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5945645672122311</v>
+        <v>0.3584818184201026</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.30240206074167</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.511046697510551</v>
+        <v>7.654595106349689</v>
       </c>
       <c r="C24">
-        <v>1.060730364101175</v>
+        <v>1.466057498706107</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2193872163313273</v>
+        <v>0.03084193334946317</v>
       </c>
       <c r="F24">
-        <v>3.101510896146578</v>
+        <v>3.753300128137454</v>
       </c>
       <c r="G24">
-        <v>0.7651854174030888</v>
+        <v>0.0007727908475222568</v>
       </c>
       <c r="H24">
-        <v>1.541340374309627</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1703366265133184</v>
+        <v>0.1203655918484827</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5012195995205744</v>
+        <v>0.3092538829282034</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.327086990890052</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.427725398733685</v>
+        <v>6.207825165410554</v>
       </c>
       <c r="C25">
-        <v>0.856957475851118</v>
+        <v>1.166699501893731</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1771379326839124</v>
+        <v>0.02615731769399154</v>
       </c>
       <c r="F25">
-        <v>2.49269477749823</v>
+        <v>3.217189715347388</v>
       </c>
       <c r="G25">
-        <v>0.6171927576641565</v>
+        <v>0.0007942740329118239</v>
       </c>
       <c r="H25">
-        <v>1.265411699898166</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1485045842761465</v>
+        <v>0.1155198877993016</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4043323571122031</v>
+        <v>0.2584330620341291</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.368275052004577</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.197271237335087</v>
+        <v>0.9116826491470249</v>
       </c>
       <c r="C2">
-        <v>0.9577361101714246</v>
+        <v>0.1253705859990788</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0230244822873269</v>
+        <v>0.0258069111003234</v>
       </c>
       <c r="F2">
-        <v>2.85337465687175</v>
+        <v>7.373528276779723</v>
       </c>
       <c r="G2">
-        <v>0.0008104017435358677</v>
+        <v>0.0008926775957375301</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1133132704287405</v>
+        <v>0.8820234626890056</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9312950468138297</v>
       </c>
       <c r="L2">
-        <v>0.2224844618318116</v>
+        <v>0.008593398209331582</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07382541095951467</v>
       </c>
       <c r="N2">
-        <v>1.408580726628287</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.537701932519667</v>
+        <v>0.8210941842978343</v>
       </c>
       <c r="C3">
-        <v>0.821197230216967</v>
+        <v>0.1079831988082844</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0210327407350368</v>
+        <v>0.02242653113554205</v>
       </c>
       <c r="F3">
-        <v>2.621863106675988</v>
+        <v>6.69423638724362</v>
       </c>
       <c r="G3">
-        <v>0.000821604037138772</v>
+        <v>0.0009014272518231667</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1124893018074467</v>
+        <v>0.8055052178859654</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8248662124818793</v>
       </c>
       <c r="L3">
-        <v>0.1988383727165086</v>
+        <v>0.007003802534280013</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06793461040142823</v>
       </c>
       <c r="N3">
-        <v>1.441105133248811</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.142743662127259</v>
+        <v>0.7677398312856951</v>
       </c>
       <c r="C4">
-        <v>0.7392957068726389</v>
+        <v>0.09746675564927898</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01985702326441618</v>
+        <v>0.02041210389231551</v>
       </c>
       <c r="F4">
-        <v>2.485952149608565</v>
+        <v>6.283863061769125</v>
       </c>
       <c r="G4">
-        <v>0.0008286388109911744</v>
+        <v>0.0009069371825189693</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.112266150597474</v>
+        <v>0.7590440520273205</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7615928832851182</v>
       </c>
       <c r="L4">
-        <v>0.1846165052874582</v>
+        <v>0.006264927493683459</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06471342881898323</v>
       </c>
       <c r="N4">
-        <v>1.463362315054781</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.98399125990835</v>
+        <v>0.7465194944010136</v>
       </c>
       <c r="C5">
-        <v>0.7063316101043711</v>
+        <v>0.09321489169047936</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01938751834757912</v>
+        <v>0.01960486305801723</v>
       </c>
       <c r="F5">
-        <v>2.431979155212474</v>
+        <v>6.118081278047555</v>
       </c>
       <c r="G5">
-        <v>0.0008315478251554215</v>
+        <v>0.0009092188527861783</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1122399852455018</v>
+        <v>0.7402132332646829</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7362793860755801</v>
       </c>
       <c r="L5">
-        <v>0.1788881804849325</v>
+        <v>0.006018234707429571</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0634931351035668</v>
       </c>
       <c r="N5">
-        <v>1.472969931396264</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.957754354343137</v>
+        <v>0.7430260704595071</v>
       </c>
       <c r="C6">
-        <v>0.7008807553477254</v>
+        <v>0.09251072882206302</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01931007690388853</v>
+        <v>0.01947159833093259</v>
       </c>
       <c r="F6">
-        <v>2.423097955358429</v>
+        <v>6.090634196668731</v>
       </c>
       <c r="G6">
-        <v>0.0008320334990895335</v>
+        <v>0.0009095999644393024</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1122393806540281</v>
+        <v>0.7370917870156717</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7321031382602143</v>
       </c>
       <c r="L6">
-        <v>0.1779408503782776</v>
+        <v>0.005980413202987478</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06329588733550473</v>
       </c>
       <c r="N6">
-        <v>1.474596716957876</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.14059418276986</v>
+        <v>0.7674515935231625</v>
       </c>
       <c r="C7">
-        <v>0.7388495689124568</v>
+        <v>0.0974092852965498</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01985065523687179</v>
+        <v>0.02040116404707426</v>
       </c>
       <c r="F7">
-        <v>2.485218730636362</v>
+        <v>6.281621707687123</v>
       </c>
       <c r="G7">
-        <v>0.0008286778679725454</v>
+        <v>0.0009069678047429499</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1122655433247921</v>
+        <v>0.7587897142125257</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7612496538869209</v>
       </c>
       <c r="L7">
-        <v>0.1845389883536583</v>
+        <v>0.006261386804320423</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06469660653934461</v>
       </c>
       <c r="N7">
-        <v>1.463489756608354</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.967566751996173</v>
+        <v>0.8799468397050418</v>
       </c>
       <c r="C8">
-        <v>0.9102084785294267</v>
+        <v>0.1193382642739067</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02232647297025547</v>
+        <v>0.02462758694805878</v>
       </c>
       <c r="F8">
-        <v>2.77215534105494</v>
+        <v>7.137763991794259</v>
       </c>
       <c r="G8">
-        <v>0.0008142336640571419</v>
+        <v>0.0008956669995210013</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1129664316109</v>
+        <v>0.8555137811659819</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8941358932844707</v>
       </c>
       <c r="L8">
-        <v>0.2142649368269218</v>
+        <v>0.007992793343582605</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07170759929600834</v>
       </c>
       <c r="N8">
-        <v>1.419296668611622</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.685362876827639</v>
+        <v>1.120957655035596</v>
       </c>
       <c r="C9">
-        <v>1.265450884647407</v>
+        <v>0.1639293424002375</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02767611460476171</v>
+        <v>0.03348638990326336</v>
       </c>
       <c r="F9">
-        <v>3.392347436499563</v>
+        <v>8.88194290711391</v>
       </c>
       <c r="G9">
-        <v>0.0007870010092819229</v>
+        <v>0.0008745121690587609</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.116913933091638</v>
+        <v>1.050756275032555</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.173732402837857</v>
       </c>
       <c r="L9">
-        <v>0.2752941349640992</v>
+        <v>0.01353203408213233</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08895709586758471</v>
       </c>
       <c r="N9">
-        <v>1.352699086041213</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.03287192197655</v>
+        <v>1.31426713738594</v>
       </c>
       <c r="C10">
-        <v>1.544449445559053</v>
+        <v>0.1981660113993655</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03210949338957203</v>
+        <v>0.0404764414260832</v>
       </c>
       <c r="F10">
-        <v>3.895962654835046</v>
+        <v>10.22198345518839</v>
       </c>
       <c r="G10">
-        <v>0.0007674184851834868</v>
+        <v>0.0008594496630195357</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1219249942280527</v>
+        <v>1.199829664701866</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.394740405989609</v>
       </c>
       <c r="L10">
-        <v>0.322409939404821</v>
+        <v>0.01932163274492282</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1043330874757693</v>
       </c>
       <c r="N10">
-        <v>1.319102431716189</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.671722278017796</v>
+        <v>1.406719839513698</v>
       </c>
       <c r="C11">
-        <v>1.677005472141218</v>
+        <v>0.2141930094263529</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03429321476481029</v>
+        <v>0.04379525781510907</v>
       </c>
       <c r="F11">
-        <v>4.138962896065323</v>
+        <v>10.84916694261733</v>
       </c>
       <c r="G11">
-        <v>0.0007585373678580254</v>
+        <v>0.0008526674943338241</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1248141550302861</v>
+        <v>1.26944492986857</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.499705189727877</v>
       </c>
       <c r="L11">
-        <v>0.3445006207315231</v>
+        <v>0.02243696925995309</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1120635838226889</v>
       </c>
       <c r="N11">
-        <v>1.307993216801719</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.918092387837419</v>
+        <v>1.442473899009229</v>
       </c>
       <c r="C12">
-        <v>1.728187514535193</v>
+        <v>0.2203397916587022</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03515024798816668</v>
+        <v>0.0450752937568808</v>
       </c>
       <c r="F12">
-        <v>4.233330078831216</v>
+        <v>11.08965983271673</v>
       </c>
       <c r="G12">
-        <v>0.0007551716870349954</v>
+        <v>0.0008501060573427774</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1260115534379551</v>
+        <v>1.296120769146142</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.540189614114638</v>
       </c>
       <c r="L12">
-        <v>0.3529763305866993</v>
+        <v>0.02369650668152445</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1151112649606034</v>
       </c>
       <c r="N12">
-        <v>1.30447294714493</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.864821136176147</v>
+        <v>1.434738869990099</v>
       </c>
       <c r="C13">
-        <v>1.717117555147809</v>
+        <v>0.2190122963248342</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03496422027108537</v>
+        <v>0.04479852311553856</v>
       </c>
       <c r="F13">
-        <v>4.21289576753486</v>
+        <v>11.03772428449628</v>
       </c>
       <c r="G13">
-        <v>0.000755896777697729</v>
+        <v>0.0008506574609630089</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1257487933537291</v>
+        <v>1.290360726268887</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.531436071676524</v>
       </c>
       <c r="L13">
-        <v>0.3511457417457962</v>
+        <v>0.0234215076175559</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1144492883117643</v>
       </c>
       <c r="N13">
-        <v>1.305199022857948</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.691897424785793</v>
+        <v>1.409645841532949</v>
       </c>
       <c r="C14">
-        <v>1.681195370312821</v>
+        <v>0.2146970730232738</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03436308042218883</v>
+        <v>0.04390008037624682</v>
       </c>
       <c r="F14">
-        <v>4.146677263376887</v>
+        <v>10.86888960269033</v>
       </c>
       <c r="G14">
-        <v>0.0007582605644449458</v>
+        <v>0.000852456646426658</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.12491049389034</v>
+        <v>1.271632931517445</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.503020484845251</v>
       </c>
       <c r="L14">
-        <v>0.34519560870676</v>
+        <v>0.02253892629898857</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1123118167643256</v>
       </c>
       <c r="N14">
-        <v>1.307689292554457</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.586580293229645</v>
+        <v>1.394375597554614</v>
       </c>
       <c r="C15">
-        <v>1.659326144052386</v>
+        <v>0.2120643980492929</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03399898875728447</v>
+        <v>0.04335289380474805</v>
       </c>
       <c r="F15">
-        <v>4.106433713639717</v>
+        <v>10.76587791577828</v>
       </c>
       <c r="G15">
-        <v>0.0007597079023025346</v>
+        <v>0.0008535594852989684</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.124410986223296</v>
+        <v>1.26020427427764</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.485714236022147</v>
       </c>
       <c r="L15">
-        <v>0.3415658794318546</v>
+        <v>0.02200905530436259</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1110186870348642</v>
       </c>
       <c r="N15">
-        <v>1.309306889605651</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.99170172124451</v>
+        <v>1.308323820444201</v>
       </c>
       <c r="C16">
-        <v>1.535914317512265</v>
+        <v>0.1971287571583957</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03197063414500168</v>
+        <v>0.04026261718789925</v>
       </c>
       <c r="F16">
-        <v>3.880390293572447</v>
+        <v>10.18138770205368</v>
       </c>
       <c r="G16">
-        <v>0.0007679989021381464</v>
+        <v>0.0008598940331425002</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1217497200191247</v>
+        <v>1.195320928751869</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.387978032822843</v>
       </c>
       <c r="L16">
-        <v>0.3209807947967249</v>
+        <v>0.01912859942336453</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1038438819396248</v>
       </c>
       <c r="N16">
-        <v>1.319919475765147</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.633869520788721</v>
+        <v>1.256753922727114</v>
       </c>
       <c r="C17">
-        <v>1.461764293958993</v>
+        <v>0.1880906004775937</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03077301731284887</v>
+        <v>0.03840464096699847</v>
       </c>
       <c r="F17">
-        <v>3.745511321540818</v>
+        <v>9.827638141857761</v>
       </c>
       <c r="G17">
-        <v>0.0007730878178988613</v>
+        <v>0.0008637957958622329</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1202834960629389</v>
+        <v>1.156015348617473</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.329220890282699</v>
       </c>
       <c r="L17">
-        <v>0.3085314614482542</v>
+        <v>0.01749194979879221</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09964053445203902</v>
       </c>
       <c r="N17">
-        <v>1.327555842740637</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.430437591946259</v>
+        <v>1.227510891989908</v>
       </c>
       <c r="C18">
-        <v>1.419633702640851</v>
+        <v>0.1829338402448002</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03009946301390887</v>
+        <v>0.03734884628720891</v>
       </c>
       <c r="F18">
-        <v>3.66921711822107</v>
+        <v>9.62579562901351</v>
       </c>
       <c r="G18">
-        <v>0.00077601782276129</v>
+        <v>0.0008660467754302649</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.119496445786055</v>
+        <v>1.133573648166845</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.295835318011456</v>
       </c>
       <c r="L18">
-        <v>0.3014317322191715</v>
+        <v>0.01659521003780284</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0972911659581861</v>
       </c>
       <c r="N18">
-        <v>1.332334992952454</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.361948119617011</v>
+        <v>1.217678912721709</v>
       </c>
       <c r="C19">
-        <v>1.405453229469742</v>
+        <v>0.1811946625630299</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02987386836139105</v>
+        <v>0.0369934885236276</v>
       </c>
       <c r="F19">
-        <v>3.643596143601059</v>
+        <v>9.557721172132091</v>
       </c>
       <c r="G19">
-        <v>0.0007770105664826977</v>
+        <v>0.0008668101764405831</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1192392005426655</v>
+        <v>1.126002192757582</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.284599122244401</v>
       </c>
       <c r="L19">
-        <v>0.2990378829383076</v>
+        <v>0.01629895427705463</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.09650702922404264</v>
       </c>
       <c r="N19">
-        <v>1.334017193702365</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.671709759201804</v>
+        <v>1.262199654592251</v>
       </c>
       <c r="C20">
-        <v>1.4696028539488</v>
+        <v>0.1890483207920539</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03089888376498884</v>
+        <v>0.03860107188495832</v>
       </c>
       <c r="F20">
-        <v>3.759734123129903</v>
+        <v>9.865124059388904</v>
       </c>
       <c r="G20">
-        <v>0.0007725458276771707</v>
+        <v>0.0008633797662460477</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1204336489413294</v>
+        <v>1.160181955932472</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.335432575653755</v>
       </c>
       <c r="L20">
-        <v>0.3098503145177744</v>
+        <v>0.01766148432872328</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1000808221110354</v>
       </c>
       <c r="N20">
-        <v>1.326702316821056</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.742562018759145</v>
+        <v>1.416995252329258</v>
       </c>
       <c r="C21">
-        <v>1.691718270589831</v>
+        <v>0.2159623405044613</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0345387775693613</v>
+        <v>0.04416331485844438</v>
       </c>
       <c r="F21">
-        <v>4.166060429612628</v>
+        <v>10.9183952447039</v>
       </c>
       <c r="G21">
-        <v>0.0007575663908407738</v>
+        <v>0.0008519280244726811</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1251537779425078</v>
+        <v>1.277124740106672</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.511345977158754</v>
       </c>
       <c r="L21">
-        <v>0.34694016999903</v>
+        <v>0.02279590348322102</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1129362529511617</v>
       </c>
       <c r="N21">
-        <v>1.306938441705938</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.468811296009562</v>
+        <v>1.522554993409244</v>
       </c>
       <c r="C22">
-        <v>1.842736689808362</v>
+        <v>0.2340123102951708</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03709698533596573</v>
+        <v>0.0479360617436555</v>
       </c>
       <c r="F22">
-        <v>4.445513974659661</v>
+        <v>11.62447020912418</v>
       </c>
       <c r="G22">
-        <v>0.0007477574527794127</v>
+        <v>0.0008444816119589537</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1288506349571392</v>
+        <v>1.355415239172544</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.630665433512775</v>
       </c>
       <c r="L22">
-        <v>0.3718336440743855</v>
+        <v>0.0266228993891886</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1220475757983834</v>
       </c>
       <c r="N22">
-        <v>1.298075372669885</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.078506666368867</v>
+        <v>1.465779013265433</v>
       </c>
       <c r="C23">
-        <v>1.761532995395669</v>
+        <v>0.2243319607475058</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03571283694064675</v>
+        <v>0.04590869248563578</v>
       </c>
       <c r="F23">
-        <v>4.294961081254144</v>
+        <v>11.24583564872256</v>
       </c>
       <c r="G23">
-        <v>0.0007529968624592607</v>
+        <v>0.0008484536056368584</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1268155306133991</v>
+        <v>1.313439606081118</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.566547646536094</v>
       </c>
       <c r="L23">
-        <v>0.3584818184201026</v>
+        <v>0.0245333243031034</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1171144168763867</v>
       </c>
       <c r="N23">
-        <v>1.30240206074167</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.654595106349689</v>
+        <v>1.259736384144361</v>
       </c>
       <c r="C24">
-        <v>1.466057498706107</v>
+        <v>0.1886152136578971</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03084193334946317</v>
+        <v>0.03851222714659386</v>
       </c>
       <c r="F24">
-        <v>3.753300128137454</v>
+        <v>9.848171935824894</v>
       </c>
       <c r="G24">
-        <v>0.0007727908475222568</v>
+        <v>0.000863567828605197</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1203655918484827</v>
+        <v>1.158297752165623</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.332623050693968</v>
       </c>
       <c r="L24">
-        <v>0.3092538829282034</v>
+        <v>0.01758470089869135</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.09988155984077807</v>
       </c>
       <c r="N24">
-        <v>1.327086990890052</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.207825165410554</v>
+        <v>1.053207869910864</v>
       </c>
       <c r="C25">
-        <v>1.166699501893731</v>
+        <v>0.1516474192091977</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02615731769399154</v>
+        <v>0.03101585262968243</v>
       </c>
       <c r="F25">
-        <v>3.217189715347388</v>
+        <v>8.401294876075752</v>
       </c>
       <c r="G25">
-        <v>0.0007942740329118239</v>
+        <v>0.0008801403164996954</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1155198877993016</v>
+        <v>0.9971264882421451</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.095674507378362</v>
       </c>
       <c r="L25">
-        <v>0.2584330620341291</v>
+        <v>0.01176443613113776</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08386136898304386</v>
       </c>
       <c r="N25">
-        <v>1.368275052004577</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9116826491470249</v>
+        <v>1.458825068571144</v>
       </c>
       <c r="C2">
-        <v>0.1253705859990788</v>
+        <v>0.04077326317384689</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0258069111003234</v>
+        <v>0.04600774054123669</v>
       </c>
       <c r="F2">
-        <v>7.373528276779723</v>
+        <v>6.354418123488841</v>
       </c>
       <c r="G2">
-        <v>0.0008926775957375301</v>
+        <v>0.002694860732103011</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8820234626890056</v>
+        <v>0.6049521132995181</v>
       </c>
       <c r="K2">
-        <v>0.9312950468138297</v>
+        <v>1.062898978091397</v>
       </c>
       <c r="L2">
-        <v>0.008593398209331582</v>
+        <v>0.1207030533839752</v>
       </c>
       <c r="M2">
-        <v>0.07382541095951467</v>
+        <v>0.2533381479270957</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8210941842978343</v>
+        <v>1.454157706160146</v>
       </c>
       <c r="C3">
-        <v>0.1079831988082844</v>
+        <v>0.03551341101903915</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02242653113554205</v>
+        <v>0.04585883875205532</v>
       </c>
       <c r="F3">
-        <v>6.69423638724362</v>
+        <v>6.155580197608202</v>
       </c>
       <c r="G3">
-        <v>0.0009014272518231667</v>
+        <v>0.002699896048564795</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.8055052178859654</v>
+        <v>0.579872450894058</v>
       </c>
       <c r="K3">
-        <v>0.8248662124818793</v>
+        <v>1.04783688151565</v>
       </c>
       <c r="L3">
-        <v>0.007003802534280013</v>
+        <v>0.1246140913417033</v>
       </c>
       <c r="M3">
-        <v>0.06793461040142823</v>
+        <v>0.2571453272431832</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7677398312856951</v>
+        <v>1.452452678315041</v>
       </c>
       <c r="C4">
-        <v>0.09746675564927898</v>
+        <v>0.03228020722961844</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02041210389231551</v>
+        <v>0.04580120698253509</v>
       </c>
       <c r="F4">
-        <v>6.283863061769125</v>
+        <v>6.03387621080708</v>
       </c>
       <c r="G4">
-        <v>0.0009069371825189693</v>
+        <v>0.00270314829939684</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7590440520273205</v>
+        <v>0.5643051192804336</v>
       </c>
       <c r="K4">
-        <v>0.7615928832851182</v>
+        <v>1.039458673152325</v>
       </c>
       <c r="L4">
-        <v>0.006264927493683459</v>
+        <v>0.1271880884942007</v>
       </c>
       <c r="M4">
-        <v>0.06471342881898323</v>
+        <v>0.2597445266767444</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7465194944010136</v>
+        <v>1.452049623596679</v>
       </c>
       <c r="C5">
-        <v>0.09321489169047936</v>
+        <v>0.03096163090714299</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01960486305801723</v>
+        <v>0.04578619029921072</v>
       </c>
       <c r="F5">
-        <v>6.118081278047555</v>
+        <v>5.984373130962865</v>
       </c>
       <c r="G5">
-        <v>0.0009092188527861783</v>
+        <v>0.002704514130386054</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.7402132332646829</v>
+        <v>0.5579181552496806</v>
       </c>
       <c r="K5">
-        <v>0.7362793860755801</v>
+        <v>1.036262914896582</v>
       </c>
       <c r="L5">
-        <v>0.006018234707429571</v>
+        <v>0.1282803239314649</v>
       </c>
       <c r="M5">
-        <v>0.0634931351035668</v>
+        <v>0.260869483025056</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7430260704595071</v>
+        <v>1.452000314847169</v>
       </c>
       <c r="C6">
-        <v>0.09251072882206302</v>
+        <v>0.03074261766168718</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01947159833093259</v>
+        <v>0.04578420743186129</v>
       </c>
       <c r="F6">
-        <v>6.090634196668731</v>
+        <v>5.976158636998434</v>
       </c>
       <c r="G6">
-        <v>0.0009095999644393024</v>
+        <v>0.002704743376639617</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.7370917870156717</v>
+        <v>0.5568549745120634</v>
       </c>
       <c r="K6">
-        <v>0.7321031382602143</v>
+        <v>1.035745444799915</v>
       </c>
       <c r="L6">
-        <v>0.005980413202987478</v>
+        <v>0.1284643019821559</v>
       </c>
       <c r="M6">
-        <v>0.06329588733550473</v>
+        <v>0.2610602526414034</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7674515935231625</v>
+        <v>1.45244606142623</v>
       </c>
       <c r="C7">
-        <v>0.0974092852965498</v>
+        <v>0.03226242871359375</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02040116404707426</v>
+        <v>0.04580097021128893</v>
       </c>
       <c r="F7">
-        <v>6.281621707687123</v>
+        <v>6.033208226744563</v>
       </c>
       <c r="G7">
-        <v>0.0009069678047429499</v>
+        <v>0.002703166555243872</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.7587897142125257</v>
+        <v>0.5642191582385152</v>
       </c>
       <c r="K7">
-        <v>0.7612496538869209</v>
+        <v>1.039414690065882</v>
       </c>
       <c r="L7">
-        <v>0.006261386804320423</v>
+        <v>0.127202643523038</v>
       </c>
       <c r="M7">
-        <v>0.06469660653934461</v>
+        <v>0.2597594319860281</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8799468397050418</v>
+        <v>1.45697476281066</v>
       </c>
       <c r="C8">
-        <v>0.1193382642739067</v>
+        <v>0.03896035481263027</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02462758694805878</v>
+        <v>0.04594936734192068</v>
       </c>
       <c r="F8">
-        <v>7.137763991794259</v>
+        <v>6.285776712741125</v>
       </c>
       <c r="G8">
-        <v>0.0008956669995210013</v>
+        <v>0.002696563673350771</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.8555137811659819</v>
+        <v>0.5963390770466361</v>
       </c>
       <c r="K8">
-        <v>0.8941358932844707</v>
+        <v>1.057524789508449</v>
       </c>
       <c r="L8">
-        <v>0.007992793343582605</v>
+        <v>0.1220156999448108</v>
       </c>
       <c r="M8">
-        <v>0.07170759929600834</v>
+        <v>0.2545965639211545</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.120957655035596</v>
+        <v>1.475075218608623</v>
       </c>
       <c r="C9">
-        <v>0.1639293424002375</v>
+        <v>0.05207153765013572</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03348638990326336</v>
+        <v>0.04650992771597018</v>
       </c>
       <c r="F9">
-        <v>8.88194290711391</v>
+        <v>6.784314538435865</v>
       </c>
       <c r="G9">
-        <v>0.0008745121690587609</v>
+        <v>0.002684882834731794</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.050756275032555</v>
+        <v>0.6580301107113797</v>
       </c>
       <c r="K9">
-        <v>1.173732402837857</v>
+        <v>1.099961077842636</v>
       </c>
       <c r="L9">
-        <v>0.01353203408213233</v>
+        <v>0.1132177493942592</v>
       </c>
       <c r="M9">
-        <v>0.08895709586758471</v>
+        <v>0.246548609612038</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.31426713738594</v>
+        <v>1.494013532783669</v>
       </c>
       <c r="C10">
-        <v>0.1981660113993655</v>
+        <v>0.06169841116089003</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0404764414260832</v>
+        <v>0.04708818649750768</v>
       </c>
       <c r="F10">
-        <v>10.22198345518839</v>
+        <v>7.152900717705194</v>
       </c>
       <c r="G10">
-        <v>0.0008594496630195357</v>
+        <v>0.002677064481772184</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.199829664701866</v>
+        <v>0.7026223693768543</v>
       </c>
       <c r="K10">
-        <v>1.394740405989609</v>
+        <v>1.135392672235383</v>
       </c>
       <c r="L10">
-        <v>0.01932163274492282</v>
+        <v>0.1075968941976804</v>
       </c>
       <c r="M10">
-        <v>0.1043330874757693</v>
+        <v>0.2419033400470525</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.406719839513698</v>
+        <v>1.503858533986005</v>
       </c>
       <c r="C11">
-        <v>0.2141930094263529</v>
+        <v>0.06607851215122196</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04379525781510907</v>
+        <v>0.04738785016007441</v>
       </c>
       <c r="F11">
-        <v>10.84916694261733</v>
+        <v>7.321155453849542</v>
       </c>
       <c r="G11">
-        <v>0.0008526674943338241</v>
+        <v>0.002673671569533908</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.26944492986857</v>
+        <v>0.7227622763728334</v>
       </c>
       <c r="K11">
-        <v>1.499705189727877</v>
+        <v>1.152442933847738</v>
       </c>
       <c r="L11">
-        <v>0.02243696925995309</v>
+        <v>0.1052241060798096</v>
       </c>
       <c r="M11">
-        <v>0.1120635838226889</v>
+        <v>0.2400657818398635</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.442473899009229</v>
+        <v>1.507763755512372</v>
       </c>
       <c r="C12">
-        <v>0.2203397916587022</v>
+        <v>0.06773738944980323</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0450752937568808</v>
+        <v>0.04750662539372641</v>
       </c>
       <c r="F12">
-        <v>11.08965983271673</v>
+        <v>7.384958266694923</v>
       </c>
       <c r="G12">
-        <v>0.0008501060573427774</v>
+        <v>0.002672410153066098</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.296120769146142</v>
+        <v>0.7303687952854148</v>
       </c>
       <c r="K12">
-        <v>1.540189614114638</v>
+        <v>1.159034028458564</v>
       </c>
       <c r="L12">
-        <v>0.02369650668152445</v>
+        <v>0.1043521857423535</v>
       </c>
       <c r="M12">
-        <v>0.1151112649606034</v>
+        <v>0.2394096177018454</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.434738869990099</v>
+        <v>1.506914813492472</v>
       </c>
       <c r="C13">
-        <v>0.2190122963248342</v>
+        <v>0.06738010855437437</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04479852311553856</v>
+        <v>0.04748080878887251</v>
       </c>
       <c r="F13">
-        <v>11.03772428449628</v>
+        <v>7.371213184655232</v>
       </c>
       <c r="G13">
-        <v>0.0008506574609630089</v>
+        <v>0.002672680782596009</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.290360726268887</v>
+        <v>0.7287314720881</v>
       </c>
       <c r="K13">
-        <v>1.531436071676524</v>
+        <v>1.157608527299715</v>
       </c>
       <c r="L13">
-        <v>0.0234215076175559</v>
+        <v>0.1045387842767056</v>
       </c>
       <c r="M13">
-        <v>0.1144492883117643</v>
+        <v>0.2395491688340563</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.409645841532949</v>
+        <v>1.504176267233674</v>
       </c>
       <c r="C14">
-        <v>0.2146970730232738</v>
+        <v>0.06621498375113788</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04390008037624682</v>
+        <v>0.04739751546881266</v>
       </c>
       <c r="F14">
-        <v>10.86888960269033</v>
+        <v>7.326402751739352</v>
       </c>
       <c r="G14">
-        <v>0.000852456646426658</v>
+        <v>0.002673567323561971</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.271632931517445</v>
+        <v>0.7233884656099292</v>
       </c>
       <c r="K14">
-        <v>1.503020484845251</v>
+        <v>1.152982488203321</v>
       </c>
       <c r="L14">
-        <v>0.02253892629898857</v>
+        <v>0.1051518388102153</v>
       </c>
       <c r="M14">
-        <v>0.1123118167643256</v>
+        <v>0.2400110033000011</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.394375597554614</v>
+        <v>1.502521905149649</v>
       </c>
       <c r="C15">
-        <v>0.2120643980492929</v>
+        <v>0.06550134430453625</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04335289380474805</v>
+        <v>0.04734718703672414</v>
       </c>
       <c r="F15">
-        <v>10.76587791577828</v>
+        <v>7.298966715829408</v>
       </c>
       <c r="G15">
-        <v>0.0008535594852989684</v>
+        <v>0.002674113399746769</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.26020427427764</v>
+        <v>0.720113137778668</v>
       </c>
       <c r="K15">
-        <v>1.485714236022147</v>
+        <v>1.150166439876244</v>
       </c>
       <c r="L15">
-        <v>0.02200905530436259</v>
+        <v>0.1055308205103955</v>
       </c>
       <c r="M15">
-        <v>0.1110186870348642</v>
+        <v>0.240299059154804</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.308323820444201</v>
+        <v>1.493394910402969</v>
       </c>
       <c r="C16">
-        <v>0.1971287571583957</v>
+        <v>0.0614121868987354</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04026261718789925</v>
+        <v>0.04706934241734473</v>
       </c>
       <c r="F16">
-        <v>10.18138770205368</v>
+        <v>7.141916995088508</v>
       </c>
       <c r="G16">
-        <v>0.0008598940331425002</v>
+        <v>0.002677289498960257</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.195320928751869</v>
+        <v>0.7013033290062936</v>
       </c>
       <c r="K16">
-        <v>1.387978032822843</v>
+        <v>1.134297196971346</v>
       </c>
       <c r="L16">
-        <v>0.01912859942336453</v>
+        <v>0.1077556776064625</v>
       </c>
       <c r="M16">
-        <v>0.1038438819396248</v>
+        <v>0.2420289786183183</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.256753922727114</v>
+        <v>1.488110986902427</v>
       </c>
       <c r="C17">
-        <v>0.1880906004775937</v>
+        <v>0.05890390435075687</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03840464096699847</v>
+        <v>0.04690829508954764</v>
       </c>
       <c r="F17">
-        <v>9.827638141857761</v>
+        <v>7.045724628025027</v>
       </c>
       <c r="G17">
-        <v>0.0008637957958622329</v>
+        <v>0.002679279764023673</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.156015348617473</v>
+        <v>0.6897275155741625</v>
       </c>
       <c r="K17">
-        <v>1.329220890282699</v>
+        <v>1.124801034561898</v>
       </c>
       <c r="L17">
-        <v>0.01749194979879221</v>
+        <v>0.1091678097168121</v>
       </c>
       <c r="M17">
-        <v>0.09964053445203902</v>
+        <v>0.2431608490453101</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.227510891989908</v>
+        <v>1.485187557013433</v>
       </c>
       <c r="C18">
-        <v>0.1829338402448002</v>
+        <v>0.05746127378823473</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03734884628720891</v>
+        <v>0.04681910882552742</v>
       </c>
       <c r="F18">
-        <v>9.62579562901351</v>
+        <v>6.99045192412629</v>
       </c>
       <c r="G18">
-        <v>0.0008660467754302649</v>
+        <v>0.002680439927710885</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>1.133573648166845</v>
+        <v>0.6830556817217541</v>
       </c>
       <c r="K18">
-        <v>1.295835318011456</v>
+        <v>1.119426811734911</v>
       </c>
       <c r="L18">
-        <v>0.01659521003780284</v>
+        <v>0.1099973581390934</v>
       </c>
       <c r="M18">
-        <v>0.0972911659581861</v>
+        <v>0.2438378084919748</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.217678912721709</v>
+        <v>1.484217604621421</v>
       </c>
       <c r="C19">
-        <v>0.1811946625630299</v>
+        <v>0.0569728319380971</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0369934885236276</v>
+        <v>0.04678950233648749</v>
       </c>
       <c r="F19">
-        <v>9.557721172132091</v>
+        <v>6.971746776414562</v>
       </c>
       <c r="G19">
-        <v>0.0008668101764405831</v>
+        <v>0.002680835390907963</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.126002192757582</v>
+        <v>0.6807943284356384</v>
       </c>
       <c r="K19">
-        <v>1.284599122244401</v>
+        <v>1.117622243799417</v>
       </c>
       <c r="L19">
-        <v>0.01629895427705463</v>
+        <v>0.1102812013506345</v>
       </c>
       <c r="M19">
-        <v>0.09650702922404264</v>
+        <v>0.244071468689981</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.262199654592251</v>
+        <v>1.488661488661592</v>
       </c>
       <c r="C20">
-        <v>0.1890483207920539</v>
+        <v>0.05917090752338083</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03860107188495832</v>
+        <v>0.04692508217372904</v>
       </c>
       <c r="F20">
-        <v>9.865124059388904</v>
+        <v>7.055958785912821</v>
       </c>
       <c r="G20">
-        <v>0.0008633797662460477</v>
+        <v>0.002679066302489643</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.160181955932472</v>
+        <v>0.6909611955699972</v>
       </c>
       <c r="K20">
-        <v>1.335432575653755</v>
+        <v>1.125802835354364</v>
       </c>
       <c r="L20">
-        <v>0.01766148432872328</v>
+        <v>0.1090156916674481</v>
       </c>
       <c r="M20">
-        <v>0.1000808221110354</v>
+        <v>0.2430376747390071</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.416995252329258</v>
+        <v>1.504975834992337</v>
       </c>
       <c r="C21">
-        <v>0.2159623405044613</v>
+        <v>0.06655720203535509</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04416331485844438</v>
+        <v>0.0474218366426129</v>
       </c>
       <c r="F21">
-        <v>10.9183952447039</v>
+        <v>7.339562226420071</v>
       </c>
       <c r="G21">
-        <v>0.0008519280244726811</v>
+        <v>0.0026733062910056</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.277124740106672</v>
+        <v>0.7249583726703008</v>
       </c>
       <c r="K21">
-        <v>1.511345977158754</v>
+        <v>1.154337613043793</v>
       </c>
       <c r="L21">
-        <v>0.02279590348322102</v>
+        <v>0.1049710468672274</v>
       </c>
       <c r="M21">
-        <v>0.1129362529511617</v>
+        <v>0.239874274034829</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.522554993409244</v>
+        <v>1.516670813653889</v>
       </c>
       <c r="C22">
-        <v>0.2340123102951708</v>
+        <v>0.07138595637675849</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0479360617436555</v>
+        <v>0.04777739797071234</v>
       </c>
       <c r="F22">
-        <v>11.62447020912418</v>
+        <v>7.525430871092397</v>
       </c>
       <c r="G22">
-        <v>0.0008444816119589537</v>
+        <v>0.002669678154485045</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.355415239172544</v>
+        <v>0.7470611708787374</v>
       </c>
       <c r="K22">
-        <v>1.630665433512775</v>
+        <v>1.173771118512917</v>
       </c>
       <c r="L22">
-        <v>0.0266228993891886</v>
+        <v>0.10248275769084</v>
       </c>
       <c r="M22">
-        <v>0.1220475757983834</v>
+        <v>0.2380381148347475</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.465779013265433</v>
+        <v>1.510334402570749</v>
       </c>
       <c r="C23">
-        <v>0.2243319607475058</v>
+        <v>0.06880859438925313</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04590869248563578</v>
+        <v>0.0475847890101484</v>
       </c>
       <c r="F23">
-        <v>11.24583564872256</v>
+        <v>7.426180411999951</v>
       </c>
       <c r="G23">
-        <v>0.0008484536056368584</v>
+        <v>0.002671602125841447</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.313439606081118</v>
+        <v>0.7352748452721869</v>
       </c>
       <c r="K23">
-        <v>1.566547646536094</v>
+        <v>1.163327159367498</v>
       </c>
       <c r="L23">
-        <v>0.0245333243031034</v>
+        <v>0.1037965707499069</v>
       </c>
       <c r="M23">
-        <v>0.1171144168763867</v>
+        <v>0.2389969261421214</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.259736384144361</v>
+        <v>1.488412250590756</v>
       </c>
       <c r="C24">
-        <v>0.1886152136578971</v>
+        <v>0.05905019722386839</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03851222714659386</v>
+        <v>0.04691748213901903</v>
       </c>
       <c r="F24">
-        <v>9.848171935824894</v>
+        <v>7.05133183135473</v>
       </c>
       <c r="G24">
-        <v>0.000863567828605197</v>
+        <v>0.002679162758837517</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.158297752165623</v>
+        <v>0.6904035010804535</v>
       </c>
       <c r="K24">
-        <v>1.332623050693968</v>
+        <v>1.125349655715439</v>
       </c>
       <c r="L24">
-        <v>0.01758470089869135</v>
+        <v>0.1090844091286876</v>
       </c>
       <c r="M24">
-        <v>0.09988155984077807</v>
+        <v>0.2430932801350991</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.053207869910864</v>
+        <v>1.469189595313537</v>
       </c>
       <c r="C25">
-        <v>0.1516474192091977</v>
+        <v>0.04852626294901086</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03101585262968243</v>
+        <v>0.04632920912608718</v>
       </c>
       <c r="F25">
-        <v>8.401294876075752</v>
+        <v>6.649065039614925</v>
       </c>
       <c r="G25">
-        <v>0.0008801403164996954</v>
+        <v>0.002687908068522038</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9971264882421451</v>
+        <v>0.6414738285291008</v>
       </c>
       <c r="K25">
-        <v>1.095674507378362</v>
+        <v>1.087736430820343</v>
       </c>
       <c r="L25">
-        <v>0.01176443613113776</v>
+        <v>0.1154501998614919</v>
       </c>
       <c r="M25">
-        <v>0.08386136898304386</v>
+        <v>0.248503332835984</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.458825068571144</v>
+        <v>0.911682649146826</v>
       </c>
       <c r="C2">
-        <v>0.04077326317384689</v>
+        <v>0.1253705859982119</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04600774054123669</v>
+        <v>0.02580691110031275</v>
       </c>
       <c r="F2">
-        <v>6.354418123488841</v>
+        <v>7.373528276779581</v>
       </c>
       <c r="G2">
-        <v>0.002694860732103011</v>
+        <v>0.0008926775957571341</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6049521132995181</v>
+        <v>0.8820234626890624</v>
       </c>
       <c r="K2">
-        <v>1.062898978091397</v>
+        <v>0.9312950468140002</v>
       </c>
       <c r="L2">
-        <v>0.1207030533839752</v>
+        <v>0.008593398209226777</v>
       </c>
       <c r="M2">
-        <v>0.2533381479270957</v>
+        <v>0.07382541095954664</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.454157706160146</v>
+        <v>0.8210941842983459</v>
       </c>
       <c r="C3">
-        <v>0.03551341101903915</v>
+        <v>0.107983198809265</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04585883875205532</v>
+        <v>0.02242653113557047</v>
       </c>
       <c r="F3">
-        <v>6.155580197608202</v>
+        <v>6.694236387243564</v>
       </c>
       <c r="G3">
-        <v>0.002699896048564795</v>
+        <v>0.0009014272518253928</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.579872450894058</v>
+        <v>0.8055052178859938</v>
       </c>
       <c r="K3">
-        <v>1.04783688151565</v>
+        <v>0.8248662124819077</v>
       </c>
       <c r="L3">
-        <v>0.1246140913417033</v>
+        <v>0.007003802534420345</v>
       </c>
       <c r="M3">
-        <v>0.2571453272431832</v>
+        <v>0.0679346104014833</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.452452678315041</v>
+        <v>0.7677398312858088</v>
       </c>
       <c r="C4">
-        <v>0.03228020722961844</v>
+        <v>0.09746675564954899</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04580120698253509</v>
+        <v>0.02041210389236525</v>
       </c>
       <c r="F4">
-        <v>6.03387621080708</v>
+        <v>6.283863061769296</v>
       </c>
       <c r="G4">
-        <v>0.00270314829939684</v>
+        <v>0.0009069371827140811</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5643051192804336</v>
+        <v>0.7590440520274342</v>
       </c>
       <c r="K4">
-        <v>1.039458673152325</v>
+        <v>0.7615928832851182</v>
       </c>
       <c r="L4">
-        <v>0.1271880884942007</v>
+        <v>0.006264927493832673</v>
       </c>
       <c r="M4">
-        <v>0.2597445266767444</v>
+        <v>0.06471342881897968</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.452049623596679</v>
+        <v>0.7465194944016957</v>
       </c>
       <c r="C5">
-        <v>0.03096163090714299</v>
+        <v>0.09321489169063568</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04578619029921072</v>
+        <v>0.01960486305805809</v>
       </c>
       <c r="F5">
-        <v>5.984373130962865</v>
+        <v>6.118081278047498</v>
       </c>
       <c r="G5">
-        <v>0.002704514130386054</v>
+        <v>0.0009092188527023372</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5579181552496806</v>
+        <v>0.7402132332648392</v>
       </c>
       <c r="K5">
-        <v>1.036262914896582</v>
+        <v>0.7362793860756653</v>
       </c>
       <c r="L5">
-        <v>0.1282803239314649</v>
+        <v>0.006018234707299897</v>
       </c>
       <c r="M5">
-        <v>0.260869483025056</v>
+        <v>0.06349313510356502</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.452000314847169</v>
+        <v>0.7430260704595923</v>
       </c>
       <c r="C6">
-        <v>0.03074261766168718</v>
+        <v>0.09251072882199196</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04578420743186129</v>
+        <v>0.01947159833090772</v>
       </c>
       <c r="F6">
-        <v>5.976158636998434</v>
+        <v>6.090634196668816</v>
       </c>
       <c r="G6">
-        <v>0.002704743376639617</v>
+        <v>0.0009095999645472161</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5568549745120634</v>
+        <v>0.7370917870157569</v>
       </c>
       <c r="K6">
-        <v>1.035745444799915</v>
+        <v>0.7321031382602996</v>
       </c>
       <c r="L6">
-        <v>0.1284643019821559</v>
+        <v>0.00598041320284004</v>
       </c>
       <c r="M6">
-        <v>0.2610602526414034</v>
+        <v>0.06329588733548874</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.45244606142623</v>
+        <v>0.7674515935234183</v>
       </c>
       <c r="C7">
-        <v>0.03226242871359375</v>
+        <v>0.09740928529581083</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04580097021128893</v>
+        <v>0.02040116404707426</v>
       </c>
       <c r="F7">
-        <v>6.033208226744563</v>
+        <v>6.281621707686952</v>
       </c>
       <c r="G7">
-        <v>0.002703166555243872</v>
+        <v>0.0009069678048782206</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5642191582385152</v>
+        <v>0.7587897142125684</v>
       </c>
       <c r="K7">
-        <v>1.039414690065882</v>
+        <v>0.7612496538869209</v>
       </c>
       <c r="L7">
-        <v>0.127202643523038</v>
+        <v>0.006261386804290225</v>
       </c>
       <c r="M7">
-        <v>0.2597594319860281</v>
+        <v>0.06469660653936593</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.45697476281066</v>
+        <v>0.879946839704985</v>
       </c>
       <c r="C8">
-        <v>0.03896035481263027</v>
+        <v>0.1193382642735372</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04594936734192068</v>
+        <v>0.02462758694806944</v>
       </c>
       <c r="F8">
-        <v>6.285776712741125</v>
+        <v>7.137763991794145</v>
       </c>
       <c r="G8">
-        <v>0.002696563673350771</v>
+        <v>0.0008956669996534812</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5963390770466361</v>
+        <v>0.8555137811660245</v>
       </c>
       <c r="K8">
-        <v>1.057524789508449</v>
+        <v>0.8941358932843286</v>
       </c>
       <c r="L8">
-        <v>0.1220156999448108</v>
+        <v>0.007992793343541749</v>
       </c>
       <c r="M8">
-        <v>0.2545965639211545</v>
+        <v>0.071707599296019</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.475075218608623</v>
+        <v>1.120957655035681</v>
       </c>
       <c r="C9">
-        <v>0.05207153765013572</v>
+        <v>0.1639293423987596</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04650992771597018</v>
+        <v>0.03348638990327757</v>
       </c>
       <c r="F9">
-        <v>6.784314538435865</v>
+        <v>8.881942907113825</v>
       </c>
       <c r="G9">
-        <v>0.002684882834731794</v>
+        <v>0.0008745121690667003</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6580301107113797</v>
+        <v>1.050756275032612</v>
       </c>
       <c r="K9">
-        <v>1.099961077842636</v>
+        <v>1.17373240283797</v>
       </c>
       <c r="L9">
-        <v>0.1132177493942592</v>
+        <v>0.01353203408211101</v>
       </c>
       <c r="M9">
-        <v>0.246548609612038</v>
+        <v>0.08895709586758471</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.494013532783669</v>
+        <v>1.314267137386167</v>
       </c>
       <c r="C10">
-        <v>0.06169841116089003</v>
+        <v>0.1981660113994508</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04708818649750768</v>
+        <v>0.04047644142608675</v>
       </c>
       <c r="F10">
-        <v>7.152900717705194</v>
+        <v>10.22198345518837</v>
       </c>
       <c r="G10">
-        <v>0.002677064481772184</v>
+        <v>0.0008594496633884411</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7026223693768543</v>
+        <v>1.199829664701866</v>
       </c>
       <c r="K10">
-        <v>1.135392672235383</v>
+        <v>1.39474040598958</v>
       </c>
       <c r="L10">
-        <v>0.1075968941976804</v>
+        <v>0.01932163274466703</v>
       </c>
       <c r="M10">
-        <v>0.2419033400470525</v>
+        <v>0.1043330874757871</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.503858533986005</v>
+        <v>1.406719839513556</v>
       </c>
       <c r="C11">
-        <v>0.06607851215122196</v>
+        <v>0.2141930094268076</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04738785016007441</v>
+        <v>0.04379525781499893</v>
       </c>
       <c r="F11">
-        <v>7.321155453849542</v>
+        <v>10.84916694261722</v>
       </c>
       <c r="G11">
-        <v>0.002673671569533908</v>
+        <v>0.0008526674939374212</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7227622763728334</v>
+        <v>1.269444929868541</v>
       </c>
       <c r="K11">
-        <v>1.152442933847738</v>
+        <v>1.499705189728388</v>
       </c>
       <c r="L11">
-        <v>0.1052241060798096</v>
+        <v>0.02243696925994954</v>
       </c>
       <c r="M11">
-        <v>0.2400657818398635</v>
+        <v>0.112063583822696</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.507763755512372</v>
+        <v>1.442473899009173</v>
       </c>
       <c r="C12">
-        <v>0.06773738944980323</v>
+        <v>0.220339791658219</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04750662539372641</v>
+        <v>0.04507529375692343</v>
       </c>
       <c r="F12">
-        <v>7.384958266694923</v>
+        <v>11.08965983271685</v>
       </c>
       <c r="G12">
-        <v>0.002672410153066098</v>
+        <v>0.0008501060577416634</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7303687952854148</v>
+        <v>1.296120769146313</v>
       </c>
       <c r="K12">
-        <v>1.159034028458564</v>
+        <v>1.540189614114524</v>
       </c>
       <c r="L12">
-        <v>0.1043521857423535</v>
+        <v>0.02369650668143564</v>
       </c>
       <c r="M12">
-        <v>0.2394096177018454</v>
+        <v>0.1151112649606176</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.506914813492472</v>
+        <v>1.434738869990554</v>
       </c>
       <c r="C13">
-        <v>0.06738010855437437</v>
+        <v>0.2190122963249053</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04748080878887251</v>
+        <v>0.04479852311551369</v>
       </c>
       <c r="F13">
-        <v>7.371213184655232</v>
+        <v>11.03772428449633</v>
       </c>
       <c r="G13">
-        <v>0.002672680782596009</v>
+        <v>0.0008506574609870848</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7287314720881</v>
+        <v>1.290360726268972</v>
       </c>
       <c r="K13">
-        <v>1.157608527299715</v>
+        <v>1.53143607167641</v>
       </c>
       <c r="L13">
-        <v>0.1045387842767056</v>
+        <v>0.0234215076177442</v>
       </c>
       <c r="M13">
-        <v>0.2395491688340563</v>
+        <v>0.1144492883117678</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.504176267233674</v>
+        <v>1.409645841532807</v>
       </c>
       <c r="C14">
-        <v>0.06621498375113788</v>
+        <v>0.2146970730229469</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04739751546881266</v>
+        <v>0.04390008037612958</v>
       </c>
       <c r="F14">
-        <v>7.326402751739352</v>
+        <v>10.86888960269016</v>
       </c>
       <c r="G14">
-        <v>0.002673567323561971</v>
+        <v>0.0008524566465785588</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7233884656099292</v>
+        <v>1.271632931517388</v>
       </c>
       <c r="K14">
-        <v>1.152982488203321</v>
+        <v>1.503020484845223</v>
       </c>
       <c r="L14">
-        <v>0.1051518388102153</v>
+        <v>0.02253892629891041</v>
       </c>
       <c r="M14">
-        <v>0.2400110033000011</v>
+        <v>0.1123118167643291</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.502521905149649</v>
+        <v>1.394375597554784</v>
       </c>
       <c r="C15">
-        <v>0.06550134430453625</v>
+        <v>0.2120643980487671</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04734718703672414</v>
+        <v>0.04335289380472318</v>
       </c>
       <c r="F15">
-        <v>7.298966715829408</v>
+        <v>10.76587791577845</v>
       </c>
       <c r="G15">
-        <v>0.002674113399746769</v>
+        <v>0.0008535594855480599</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.720113137778668</v>
+        <v>1.260204274277555</v>
       </c>
       <c r="K15">
-        <v>1.150166439876244</v>
+        <v>1.485714236022545</v>
       </c>
       <c r="L15">
-        <v>0.1055308205103955</v>
+        <v>0.02200905530439456</v>
       </c>
       <c r="M15">
-        <v>0.240299059154804</v>
+        <v>0.11101868703485</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.493394910402969</v>
+        <v>1.308323820443945</v>
       </c>
       <c r="C16">
-        <v>0.0614121868987354</v>
+        <v>0.1971287571583247</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04706934241734473</v>
+        <v>0.04026261718788859</v>
       </c>
       <c r="F16">
-        <v>7.141916995088508</v>
+        <v>10.181387702054</v>
       </c>
       <c r="G16">
-        <v>0.002677289498960257</v>
+        <v>0.0008598940332214618</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7013033290062936</v>
+        <v>1.195320928752096</v>
       </c>
       <c r="K16">
-        <v>1.134297196971346</v>
+        <v>1.387978032822701</v>
       </c>
       <c r="L16">
-        <v>0.1077556776064625</v>
+        <v>0.01912859942367717</v>
       </c>
       <c r="M16">
-        <v>0.2420289786183183</v>
+        <v>0.1038438819396141</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.488110986902427</v>
+        <v>1.256753922727398</v>
       </c>
       <c r="C17">
-        <v>0.05890390435075687</v>
+        <v>0.1880906004786453</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04690829508954764</v>
+        <v>0.03840464096707663</v>
       </c>
       <c r="F17">
-        <v>7.045724628025027</v>
+        <v>9.827638141857648</v>
       </c>
       <c r="G17">
-        <v>0.002679279764023673</v>
+        <v>0.0008637957958687374</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6897275155741625</v>
+        <v>1.156015348617672</v>
       </c>
       <c r="K17">
-        <v>1.124801034561898</v>
+        <v>1.329220890282585</v>
       </c>
       <c r="L17">
-        <v>0.1091678097168121</v>
+        <v>0.01749194979874602</v>
       </c>
       <c r="M17">
-        <v>0.2431608490453101</v>
+        <v>0.09964053445204257</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.485187557013433</v>
+        <v>1.227510891989823</v>
       </c>
       <c r="C18">
-        <v>0.05746127378823473</v>
+        <v>0.1829338402447718</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04681910882552742</v>
+        <v>0.03734884628730128</v>
       </c>
       <c r="F18">
-        <v>6.99045192412629</v>
+        <v>9.625795629013624</v>
       </c>
       <c r="G18">
-        <v>0.002680439927710885</v>
+        <v>0.0008660467758271161</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6830556817217541</v>
+        <v>1.13357364816676</v>
       </c>
       <c r="K18">
-        <v>1.119426811734911</v>
+        <v>1.295835318011541</v>
       </c>
       <c r="L18">
-        <v>0.1099973581390934</v>
+        <v>0.01659521003791653</v>
       </c>
       <c r="M18">
-        <v>0.2438378084919748</v>
+        <v>0.09729116595819676</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.484217604621421</v>
+        <v>1.217678912721567</v>
       </c>
       <c r="C19">
-        <v>0.0569728319380971</v>
+        <v>0.1811946625626746</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04678950233648749</v>
+        <v>0.03699348852358852</v>
       </c>
       <c r="F19">
-        <v>6.971746776414562</v>
+        <v>9.557721172131863</v>
       </c>
       <c r="G19">
-        <v>0.002680835390907963</v>
+        <v>0.0008668101761141776</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6807943284356384</v>
+        <v>1.126002192757582</v>
       </c>
       <c r="K19">
-        <v>1.117622243799417</v>
+        <v>1.28459912224443</v>
       </c>
       <c r="L19">
-        <v>0.1102812013506345</v>
+        <v>0.01629895427678818</v>
       </c>
       <c r="M19">
-        <v>0.244071468689981</v>
+        <v>0.0965070292239858</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.488661488661592</v>
+        <v>1.262199654592564</v>
       </c>
       <c r="C20">
-        <v>0.05917090752338083</v>
+        <v>0.1890483207915992</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04692508217372904</v>
+        <v>0.03860107188492634</v>
       </c>
       <c r="F20">
-        <v>7.055958785912821</v>
+        <v>9.865124059388847</v>
       </c>
       <c r="G20">
-        <v>0.002679066302489643</v>
+        <v>0.0008633797663735083</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6909611955699972</v>
+        <v>1.1601819559327</v>
       </c>
       <c r="K20">
-        <v>1.125802835354364</v>
+        <v>1.335432575653925</v>
       </c>
       <c r="L20">
-        <v>0.1090156916674481</v>
+        <v>0.01766148432860248</v>
       </c>
       <c r="M20">
-        <v>0.2430376747390071</v>
+        <v>0.1000808221110567</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.504975834992337</v>
+        <v>1.416995252329514</v>
       </c>
       <c r="C21">
-        <v>0.06655720203535509</v>
+        <v>0.2159623405040776</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0474218366426129</v>
+        <v>0.04416331485840885</v>
       </c>
       <c r="F21">
-        <v>7.339562226420071</v>
+        <v>10.91839524470379</v>
       </c>
       <c r="G21">
-        <v>0.0026733062910056</v>
+        <v>0.0008519280244895573</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7249583726703008</v>
+        <v>1.277124740106615</v>
       </c>
       <c r="K21">
-        <v>1.154337613043793</v>
+        <v>1.511345977158754</v>
       </c>
       <c r="L21">
-        <v>0.1049710468672274</v>
+        <v>0.02279590348276628</v>
       </c>
       <c r="M21">
-        <v>0.239874274034829</v>
+        <v>0.1129362529511511</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.516670813653889</v>
+        <v>1.522554993409216</v>
       </c>
       <c r="C22">
-        <v>0.07138595637675849</v>
+        <v>0.2340123102957676</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04777739797071234</v>
+        <v>0.0479360617437159</v>
       </c>
       <c r="F22">
-        <v>7.525430871092397</v>
+        <v>11.62447020912413</v>
       </c>
       <c r="G22">
-        <v>0.002669678154485045</v>
+        <v>0.0008444816118465308</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7470611708787374</v>
+        <v>1.355415239172714</v>
       </c>
       <c r="K22">
-        <v>1.173771118512917</v>
+        <v>1.630665433512689</v>
       </c>
       <c r="L22">
-        <v>0.10248275769084</v>
+        <v>0.02662289938944795</v>
       </c>
       <c r="M22">
-        <v>0.2380381148347475</v>
+        <v>0.1220475757983621</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.510334402570749</v>
+        <v>1.465779013265774</v>
       </c>
       <c r="C23">
-        <v>0.06880859438925313</v>
+        <v>0.2243319607474774</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0475847890101484</v>
+        <v>0.04590869248561447</v>
       </c>
       <c r="F23">
-        <v>7.426180411999951</v>
+        <v>11.24583564872256</v>
       </c>
       <c r="G23">
-        <v>0.002671602125841447</v>
+        <v>0.0008484536056262002</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7352748452721869</v>
+        <v>1.313439606081062</v>
       </c>
       <c r="K23">
-        <v>1.163327159367498</v>
+        <v>1.566547646536065</v>
       </c>
       <c r="L23">
-        <v>0.1037965707499069</v>
+        <v>0.02453332430311761</v>
       </c>
       <c r="M23">
-        <v>0.2389969261421214</v>
+        <v>0.1171144168763405</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.488412250590756</v>
+        <v>1.259736384144276</v>
       </c>
       <c r="C24">
-        <v>0.05905019722386839</v>
+        <v>0.1886152136575276</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04691748213901903</v>
+        <v>0.03851222714657254</v>
       </c>
       <c r="F24">
-        <v>7.05133183135473</v>
+        <v>9.848171935824809</v>
       </c>
       <c r="G24">
-        <v>0.002679162758837517</v>
+        <v>0.0008635678286218078</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6904035010804535</v>
+        <v>1.158297752165623</v>
       </c>
       <c r="K24">
-        <v>1.125349655715439</v>
+        <v>1.332623050693968</v>
       </c>
       <c r="L24">
-        <v>0.1090844091286876</v>
+        <v>0.01758470089851372</v>
       </c>
       <c r="M24">
-        <v>0.2430932801350991</v>
+        <v>0.09988155984079228</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.469189595313537</v>
+        <v>1.053207869910949</v>
       </c>
       <c r="C25">
-        <v>0.04852626294901086</v>
+        <v>0.151647419208615</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04632920912608718</v>
+        <v>0.03101585262969841</v>
       </c>
       <c r="F25">
-        <v>6.649065039614925</v>
+        <v>8.401294876075866</v>
       </c>
       <c r="G25">
-        <v>0.002687908068522038</v>
+        <v>0.0008801403166043599</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6414738285291008</v>
+        <v>0.9971264882422872</v>
       </c>
       <c r="K25">
-        <v>1.087736430820343</v>
+        <v>1.095674507378305</v>
       </c>
       <c r="L25">
-        <v>0.1154501998614919</v>
+        <v>0.01176443613114131</v>
       </c>
       <c r="M25">
-        <v>0.248503332835984</v>
+        <v>0.08386136898301189</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.911682649146826</v>
+        <v>2.935354038034177</v>
       </c>
       <c r="C2">
-        <v>0.1253705859982119</v>
+        <v>0.5099037291902846</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02580691110031275</v>
+        <v>0.07766253340441232</v>
       </c>
       <c r="F2">
-        <v>7.373528276779581</v>
+        <v>1.405574119288673</v>
       </c>
       <c r="G2">
-        <v>0.0008926775957571341</v>
+        <v>0.8696402367174585</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0009647738370006653</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0006037321557346154</v>
       </c>
       <c r="J2">
-        <v>0.8820234626890624</v>
+        <v>0.5749611056022701</v>
       </c>
       <c r="K2">
-        <v>0.9312950468140002</v>
+        <v>0.5417335947454021</v>
       </c>
       <c r="L2">
-        <v>0.008593398209226777</v>
+        <v>0.04127102824669926</v>
       </c>
       <c r="M2">
-        <v>0.07382541095954664</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4507157639650359</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8024159514108717</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8210941842983459</v>
+        <v>2.55922788462351</v>
       </c>
       <c r="C3">
-        <v>0.107983198809265</v>
+        <v>0.4488308976563644</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02242653113557047</v>
+        <v>0.07292358493697826</v>
       </c>
       <c r="F3">
-        <v>6.694236387243564</v>
+        <v>1.303581330849255</v>
       </c>
       <c r="G3">
-        <v>0.0009014272518253928</v>
+        <v>0.7999965963427229</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00225242359532063</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00126113968471131</v>
       </c>
       <c r="J3">
-        <v>0.8055052178859938</v>
+        <v>0.5471790892900401</v>
       </c>
       <c r="K3">
-        <v>0.8248662124819077</v>
+        <v>0.5223003520532856</v>
       </c>
       <c r="L3">
-        <v>0.007003802534420345</v>
+        <v>0.03906740394048924</v>
       </c>
       <c r="M3">
-        <v>0.0679346104014833</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4003139296732456</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8281590039452595</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7677398312858088</v>
+        <v>2.327838113496625</v>
       </c>
       <c r="C4">
-        <v>0.09746675564954899</v>
+        <v>0.4115511354299883</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02041210389236525</v>
+        <v>0.07000661127531593</v>
       </c>
       <c r="F4">
-        <v>6.283863061769296</v>
+        <v>1.241653250156162</v>
       </c>
       <c r="G4">
-        <v>0.0009069371827140811</v>
+        <v>0.757861460933384</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003350386867510102</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001983269999641823</v>
       </c>
       <c r="J4">
-        <v>0.7590440520274342</v>
+        <v>0.5305252097701185</v>
       </c>
       <c r="K4">
-        <v>0.7615928832851182</v>
+        <v>0.510666906358388</v>
       </c>
       <c r="L4">
-        <v>0.006264927493832673</v>
+        <v>0.03768789431946473</v>
       </c>
       <c r="M4">
-        <v>0.06471342881897968</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3694941760821848</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8446167233206054</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7465194944016957</v>
+        <v>2.231893309790564</v>
       </c>
       <c r="C5">
-        <v>0.09321489169063568</v>
+        <v>0.3967279646295196</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01960486305805809</v>
+        <v>0.06881645842622497</v>
       </c>
       <c r="F5">
-        <v>6.118081278047498</v>
+        <v>1.215729449187165</v>
       </c>
       <c r="G5">
-        <v>0.0009092188527023372</v>
+        <v>0.7398792355737811</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003874498290251993</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002427337329442114</v>
       </c>
       <c r="J5">
-        <v>0.7402132332648392</v>
+        <v>0.5233493140625995</v>
       </c>
       <c r="K5">
-        <v>0.7362793860756653</v>
+        <v>0.5053859986815397</v>
       </c>
       <c r="L5">
-        <v>0.006018234707299897</v>
+        <v>0.03714024357378598</v>
       </c>
       <c r="M5">
-        <v>0.06349313510356502</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3572178950994953</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.851613463463611</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7430260704595923</v>
+        <v>2.214090237712583</v>
       </c>
       <c r="C6">
-        <v>0.09251072882199196</v>
+        <v>0.3946660476289878</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01947159833090772</v>
+        <v>0.06862039593266545</v>
       </c>
       <c r="F6">
-        <v>6.090634196668816</v>
+        <v>1.21039681483208</v>
       </c>
       <c r="G6">
-        <v>0.0009095999645472161</v>
+        <v>0.7357351635415057</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003969752555740835</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002603365436337768</v>
       </c>
       <c r="J6">
-        <v>0.7370917870157569</v>
+        <v>0.5215714842208428</v>
       </c>
       <c r="K6">
-        <v>0.7321031382602996</v>
+        <v>0.5037681438225903</v>
       </c>
       <c r="L6">
-        <v>0.00598041320284004</v>
+        <v>0.03707524776847393</v>
       </c>
       <c r="M6">
-        <v>0.06329588733548874</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3554938389503093</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8529480549935009</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7674515935234183</v>
+        <v>2.321436304001054</v>
       </c>
       <c r="C7">
-        <v>0.09740928529581083</v>
+        <v>0.412438657121811</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02040116404707426</v>
+        <v>0.06999545311260569</v>
       </c>
       <c r="F7">
-        <v>6.281621707686952</v>
+        <v>1.238467379902204</v>
       </c>
       <c r="G7">
-        <v>0.0009069678048782206</v>
+        <v>0.7544278735451826</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003366688834782861</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002238983955622942</v>
       </c>
       <c r="J7">
-        <v>0.7587897142125684</v>
+        <v>0.5288106007308215</v>
       </c>
       <c r="K7">
-        <v>0.7612496538869209</v>
+        <v>0.5085592576329034</v>
       </c>
       <c r="L7">
-        <v>0.006261386804290225</v>
+        <v>0.03775287584163145</v>
       </c>
       <c r="M7">
-        <v>0.06469660653936593</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3701846559322348</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8451727715085475</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.879946839704985</v>
+        <v>2.798906387053194</v>
       </c>
       <c r="C8">
-        <v>0.1193382642735372</v>
+        <v>0.4902475751772783</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02462758694806944</v>
+        <v>0.07603607176503679</v>
       </c>
       <c r="F8">
-        <v>7.137763991794145</v>
+        <v>1.366490823268592</v>
       </c>
       <c r="G8">
-        <v>0.0008956669996534812</v>
+        <v>0.8412471780962107</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001350286813430079</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001054916152604335</v>
       </c>
       <c r="J8">
-        <v>0.8555137811660245</v>
+        <v>0.5631498783870086</v>
       </c>
       <c r="K8">
-        <v>0.8941358932843286</v>
+        <v>0.5322708058192873</v>
       </c>
       <c r="L8">
-        <v>0.007992793343541749</v>
+        <v>0.04061466283698323</v>
       </c>
       <c r="M8">
-        <v>0.071707599296019</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4344493108704341</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8118403567443764</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.120957655035681</v>
+        <v>3.74183279242709</v>
       </c>
       <c r="C9">
-        <v>0.1639293423987596</v>
+        <v>0.6431069406412178</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03348638990327757</v>
+        <v>0.08786658245286816</v>
       </c>
       <c r="F9">
-        <v>8.881942907113825</v>
+        <v>1.628870681572721</v>
       </c>
       <c r="G9">
-        <v>0.0008745121690667003</v>
+        <v>1.022965553546172</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.672037773463146E-06</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001099902426362931</v>
       </c>
       <c r="J9">
-        <v>1.050756275032612</v>
+        <v>0.636939212274342</v>
       </c>
       <c r="K9">
-        <v>1.17373240283797</v>
+        <v>0.5850624274811977</v>
       </c>
       <c r="L9">
-        <v>0.01353203408211101</v>
+        <v>0.04589050509662584</v>
       </c>
       <c r="M9">
-        <v>0.08895709586758471</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5601441352150118</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.7509286037018192</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.314267137386167</v>
+        <v>4.410103396932357</v>
       </c>
       <c r="C10">
-        <v>0.1981660113994508</v>
+        <v>0.7597632771856695</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04047644142608675</v>
+        <v>0.09447318696532747</v>
       </c>
       <c r="F10">
-        <v>10.22198345518837</v>
+        <v>1.800549134321329</v>
       </c>
       <c r="G10">
-        <v>0.0008594496633884411</v>
+        <v>1.145303969718896</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0009835799179191973</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003161165701983215</v>
       </c>
       <c r="J10">
-        <v>1.199829664701866</v>
+        <v>0.6859574124474079</v>
       </c>
       <c r="K10">
-        <v>1.39474040598958</v>
+        <v>0.6168004811293955</v>
       </c>
       <c r="L10">
-        <v>0.01932163274466703</v>
+        <v>0.05048233347672415</v>
       </c>
       <c r="M10">
-        <v>0.1043330874757871</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.637245363907482</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7130823486480047</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.406719839513556</v>
+        <v>4.516035717875013</v>
       </c>
       <c r="C11">
-        <v>0.2141930094268076</v>
+        <v>0.8302642346912421</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04379525781499893</v>
+        <v>0.08156705787833651</v>
       </c>
       <c r="F11">
-        <v>10.84916694261722</v>
+        <v>1.665647416345337</v>
       </c>
       <c r="G11">
-        <v>0.0008526674939374212</v>
+        <v>1.075302675562781</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01964064040033264</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004384706109132885</v>
       </c>
       <c r="J11">
-        <v>1.269444929868541</v>
+        <v>0.6456404966680509</v>
       </c>
       <c r="K11">
-        <v>1.499705189728388</v>
+        <v>0.560248766538173</v>
       </c>
       <c r="L11">
-        <v>0.02243696925994954</v>
+        <v>0.06253042861213842</v>
       </c>
       <c r="M11">
-        <v>0.112063583822696</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5350680235708438</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7294735142927067</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.442473899009173</v>
+        <v>4.46964916848026</v>
       </c>
       <c r="C12">
-        <v>0.220339791658219</v>
+        <v>0.8637870279202957</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04507529375692343</v>
+        <v>0.07305959505668636</v>
       </c>
       <c r="F12">
-        <v>11.08965983271685</v>
+        <v>1.523523035991118</v>
       </c>
       <c r="G12">
-        <v>0.0008501060577416634</v>
+        <v>0.996514819824398</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05820372213453595</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004475369247297856</v>
       </c>
       <c r="J12">
-        <v>1.296120769146313</v>
+        <v>0.6041501384262205</v>
       </c>
       <c r="K12">
-        <v>1.540189614114524</v>
+        <v>0.5106889590117305</v>
       </c>
       <c r="L12">
-        <v>0.02369650668143564</v>
+        <v>0.07547915651120363</v>
       </c>
       <c r="M12">
-        <v>0.1151112649606176</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.4399336832083947</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7571315856786427</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.434738869990554</v>
+        <v>4.295513001879556</v>
       </c>
       <c r="C13">
-        <v>0.2190122963249053</v>
+        <v>0.8720655052646009</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04479852311551369</v>
+        <v>0.06739455197104016</v>
       </c>
       <c r="F13">
-        <v>11.03772428449633</v>
+        <v>1.363714352745589</v>
       </c>
       <c r="G13">
-        <v>0.0008506574609870848</v>
+        <v>0.9014386529594702</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1136791511587489</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003994984274068081</v>
       </c>
       <c r="J13">
-        <v>1.290360726268972</v>
+        <v>0.5568022965406669</v>
       </c>
       <c r="K13">
-        <v>1.53143607167641</v>
+        <v>0.4604823585389113</v>
       </c>
       <c r="L13">
-        <v>0.0234215076177442</v>
+        <v>0.0898120587022504</v>
       </c>
       <c r="M13">
-        <v>0.1144492883117678</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.346694022436381</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7948322375264212</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.409645841532807</v>
+        <v>4.115131397460004</v>
       </c>
       <c r="C14">
-        <v>0.2146970730229469</v>
+        <v>0.8667786572449074</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04390008037612958</v>
+        <v>0.06521587531234618</v>
       </c>
       <c r="F14">
-        <v>10.86888960269016</v>
+        <v>1.244777779247585</v>
       </c>
       <c r="G14">
-        <v>0.0008524566465785588</v>
+        <v>0.8275432349781795</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1627992321422198</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003521312442140712</v>
       </c>
       <c r="J14">
-        <v>1.271632931517388</v>
+        <v>0.5209743399741598</v>
       </c>
       <c r="K14">
-        <v>1.503020484845223</v>
+        <v>0.4251131281718727</v>
       </c>
       <c r="L14">
-        <v>0.02253892629891041</v>
+        <v>0.1009236350140839</v>
       </c>
       <c r="M14">
-        <v>0.1123118167643291</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2842938958842467</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.8265294182597884</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.394375597554784</v>
+        <v>4.04266795046783</v>
       </c>
       <c r="C15">
-        <v>0.2120643980487671</v>
+        <v>0.8604978045671601</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04335289380472318</v>
+        <v>0.06478888324278254</v>
       </c>
       <c r="F15">
-        <v>10.76587791577845</v>
+        <v>1.210952416744632</v>
       </c>
       <c r="G15">
-        <v>0.0008535594855480599</v>
+        <v>0.8050226871236816</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1752161818259594</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003410560177377064</v>
       </c>
       <c r="J15">
-        <v>1.260204274277555</v>
+        <v>0.5104850522220374</v>
       </c>
       <c r="K15">
-        <v>1.485714236022545</v>
+        <v>0.4156004433056211</v>
       </c>
       <c r="L15">
-        <v>0.02200905530439456</v>
+        <v>0.1034979342517133</v>
       </c>
       <c r="M15">
-        <v>0.11101868703485</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2687334750004595</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.8359090940768041</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.308323820443945</v>
+        <v>3.791522346581758</v>
       </c>
       <c r="C16">
-        <v>0.1971287571583247</v>
+        <v>0.8083018133709174</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04026261718788859</v>
+        <v>0.06315425604647795</v>
       </c>
       <c r="F16">
-        <v>10.181387702054</v>
+        <v>1.171177646600299</v>
       </c>
       <c r="G16">
-        <v>0.0008598940332214618</v>
+        <v>0.7711347053006534</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621037041118853</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002648956347790055</v>
       </c>
       <c r="J16">
-        <v>1.195320928752096</v>
+        <v>0.4985189718369156</v>
       </c>
       <c r="K16">
-        <v>1.387978032822701</v>
+        <v>0.4116013385629458</v>
       </c>
       <c r="L16">
-        <v>0.01912859942367717</v>
+        <v>0.09825267789516801</v>
       </c>
       <c r="M16">
-        <v>0.1038438819396141</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2577666248570694</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.8416397436516547</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.256753922727398</v>
+        <v>3.694241626442533</v>
       </c>
       <c r="C17">
-        <v>0.1880906004786453</v>
+        <v>0.7713348195463823</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03840464096707663</v>
+        <v>0.06272170164217317</v>
       </c>
       <c r="F17">
-        <v>9.827638141857648</v>
+        <v>1.202867596081788</v>
       </c>
       <c r="G17">
-        <v>0.0008637957958687374</v>
+        <v>0.7839743799104184</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241842453490705</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002365676714543241</v>
       </c>
       <c r="J17">
-        <v>1.156015348617672</v>
+        <v>0.5082188362453053</v>
       </c>
       <c r="K17">
-        <v>1.329220890282585</v>
+        <v>0.4269912807542937</v>
       </c>
       <c r="L17">
-        <v>0.01749194979874602</v>
+        <v>0.08807568958033585</v>
       </c>
       <c r="M17">
-        <v>0.09964053445204257</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2812621739741274</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.8293218085960632</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.227510891989823</v>
+        <v>3.72149314167018</v>
       </c>
       <c r="C18">
-        <v>0.1829338402447718</v>
+        <v>0.742249205915698</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03734884628730128</v>
+        <v>0.06513221297428018</v>
       </c>
       <c r="F18">
-        <v>9.625795629013624</v>
+        <v>1.304044138052674</v>
       </c>
       <c r="G18">
-        <v>0.0008660467758271161</v>
+        <v>0.8416327146370435</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133756912629252</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002077275019853886</v>
       </c>
       <c r="J18">
-        <v>1.13357364816676</v>
+        <v>0.5391641318959586</v>
       </c>
       <c r="K18">
-        <v>1.295835318011541</v>
+        <v>0.4632126290803456</v>
       </c>
       <c r="L18">
-        <v>0.01659521003791653</v>
+        <v>0.07407919523235407</v>
       </c>
       <c r="M18">
-        <v>0.09729116595819676</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.3413070751165463</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8020021976969431</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.217678912721567</v>
+        <v>3.83723070333582</v>
       </c>
       <c r="C19">
-        <v>0.1811946625626746</v>
+        <v>0.7240332471745035</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03699348852358852</v>
+        <v>0.07241545764254287</v>
       </c>
       <c r="F19">
-        <v>9.557721172131863</v>
+        <v>1.454028930901757</v>
       </c>
       <c r="G19">
-        <v>0.0008668101761141776</v>
+        <v>0.9279888465465262</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02616951177429883</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002304633641797338</v>
       </c>
       <c r="J19">
-        <v>1.126002192757582</v>
+        <v>0.5831934663678737</v>
       </c>
       <c r="K19">
-        <v>1.28459912224443</v>
+        <v>0.5123189814039861</v>
       </c>
       <c r="L19">
-        <v>0.01629895427678818</v>
+        <v>0.06104754397569678</v>
       </c>
       <c r="M19">
-        <v>0.0965070292239858</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4352336933594927</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.7712330110238739</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.262199654592564</v>
+        <v>4.217226670663763</v>
       </c>
       <c r="C20">
-        <v>0.1890483207915992</v>
+        <v>0.7325296983783858</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03860107188492634</v>
+        <v>0.092651503072533</v>
       </c>
       <c r="F20">
-        <v>9.865124059388847</v>
+        <v>1.745222256207356</v>
       </c>
       <c r="G20">
-        <v>0.0008633797663735083</v>
+        <v>1.102206725260501</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0005693914892677121</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003190398486774271</v>
       </c>
       <c r="J20">
-        <v>1.1601819559327</v>
+        <v>0.6675459121039324</v>
       </c>
       <c r="K20">
-        <v>1.335432575653925</v>
+        <v>0.6016603349463026</v>
       </c>
       <c r="L20">
-        <v>0.01766148432860248</v>
+        <v>0.04957373962566081</v>
       </c>
       <c r="M20">
-        <v>0.1000808221110567</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6189531843404552</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7249149163119988</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.416995252329514</v>
+        <v>4.76707502481247</v>
       </c>
       <c r="C21">
-        <v>0.2159623405040776</v>
+        <v>0.8196424457291585</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04416331485840885</v>
+        <v>0.1011112446112357</v>
       </c>
       <c r="F21">
-        <v>10.91839524470379</v>
+        <v>1.918593484011339</v>
       </c>
       <c r="G21">
-        <v>0.0008519280244895573</v>
+        <v>1.221920022926014</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001824637984289001</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.005399692458199823</v>
       </c>
       <c r="J21">
-        <v>1.277124740106615</v>
+        <v>0.7181525699199369</v>
       </c>
       <c r="K21">
-        <v>1.511345977158754</v>
+        <v>0.6405820341165267</v>
       </c>
       <c r="L21">
-        <v>0.02279590348276628</v>
+        <v>0.05178108447316632</v>
       </c>
       <c r="M21">
-        <v>0.1129362529511511</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7038437677130531</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.6922794694427168</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.522554993409216</v>
+        <v>5.122847467215195</v>
       </c>
       <c r="C22">
-        <v>0.2340123102957676</v>
+        <v>0.8766094774156841</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0479360617437159</v>
+        <v>0.105570274345073</v>
       </c>
       <c r="F22">
-        <v>11.62447020912413</v>
+        <v>2.024412657852196</v>
       </c>
       <c r="G22">
-        <v>0.0008444816118465308</v>
+        <v>1.298391985398922</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003125530177897184</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.007002738055875035</v>
       </c>
       <c r="J22">
-        <v>1.355415239172714</v>
+        <v>0.7504112535266643</v>
       </c>
       <c r="K22">
-        <v>1.630665433512689</v>
+        <v>0.6650851553553849</v>
       </c>
       <c r="L22">
-        <v>0.02662289938944795</v>
+        <v>0.05351174403616987</v>
       </c>
       <c r="M22">
-        <v>0.1220475757983621</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7499537584407534</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.6723356126377382</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.465779013265774</v>
+        <v>4.939223957529066</v>
       </c>
       <c r="C23">
-        <v>0.2243319607474774</v>
+        <v>0.8448089333986388</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04590869248561447</v>
+        <v>0.103180294428407</v>
       </c>
       <c r="F23">
-        <v>11.24583564872256</v>
+        <v>1.971197288876283</v>
       </c>
       <c r="G23">
-        <v>0.0008484536056262002</v>
+        <v>1.261277868735931</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002397941408101234</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.005836745986987246</v>
       </c>
       <c r="J23">
-        <v>1.313439606081062</v>
+        <v>0.7350481323215377</v>
       </c>
       <c r="K23">
-        <v>1.566547646536065</v>
+        <v>0.6543613872341183</v>
       </c>
       <c r="L23">
-        <v>0.02453332430311761</v>
+        <v>0.05249550980319384</v>
       </c>
       <c r="M23">
-        <v>0.1171144168763405</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7242754261342128</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.682099451367975</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.259736384144276</v>
+        <v>4.234896932046013</v>
       </c>
       <c r="C24">
-        <v>0.1886152136575276</v>
+        <v>0.7277545513302925</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03851222714657254</v>
+        <v>0.09421983449675153</v>
       </c>
       <c r="F24">
-        <v>9.848171935824809</v>
+        <v>1.766947900062021</v>
       </c>
       <c r="G24">
-        <v>0.0008635678286218078</v>
+        <v>1.117295847023428</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.000487296575960805</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002749822206840058</v>
       </c>
       <c r="J24">
-        <v>1.158297752165623</v>
+        <v>0.6752406254042427</v>
       </c>
       <c r="K24">
-        <v>1.332623050693968</v>
+        <v>0.6110658456330569</v>
       </c>
       <c r="L24">
-        <v>0.01758470089851372</v>
+        <v>0.04875663539421282</v>
       </c>
       <c r="M24">
-        <v>0.09988155984079228</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.629232554524819</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.721938193642309</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.053207869910949</v>
+        <v>3.477415089196427</v>
       </c>
       <c r="C25">
-        <v>0.151647419208615</v>
+        <v>0.6034500869651254</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03101585262969841</v>
+        <v>0.0846685139266814</v>
       </c>
       <c r="F25">
-        <v>8.401294876075866</v>
+        <v>1.551958337456057</v>
       </c>
       <c r="G25">
-        <v>0.0008801403166043599</v>
+        <v>0.9672628047825071</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.488047121688822E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001168210977428252</v>
       </c>
       <c r="J25">
-        <v>0.9971264882422872</v>
+        <v>0.6136140348048116</v>
       </c>
       <c r="K25">
-        <v>1.095674507378305</v>
+        <v>0.5667742364766326</v>
       </c>
       <c r="L25">
-        <v>0.01176443613114131</v>
+        <v>0.0446229600605843</v>
       </c>
       <c r="M25">
-        <v>0.08386136898301189</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.5275533989970143</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7678629655237046</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.935354038034177</v>
+        <v>2.777048468375483</v>
       </c>
       <c r="C2">
-        <v>0.5099037291902846</v>
+        <v>0.5330423267049014</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07766253340441232</v>
+        <v>0.07783698365449965</v>
       </c>
       <c r="F2">
-        <v>1.405574119288673</v>
+        <v>1.310544677723911</v>
       </c>
       <c r="G2">
-        <v>0.8696402367174585</v>
+        <v>0.7439797040098455</v>
       </c>
       <c r="H2">
-        <v>0.0009647738370006653</v>
+        <v>0.0007851857812621876</v>
       </c>
       <c r="I2">
-        <v>0.0006037321557346154</v>
+        <v>0.000584266726590954</v>
       </c>
       <c r="J2">
-        <v>0.5749611056022701</v>
+        <v>0.5602443087914963</v>
       </c>
       <c r="K2">
-        <v>0.5417335947454021</v>
+        <v>0.4682759017822349</v>
       </c>
       <c r="L2">
-        <v>0.04127102824669926</v>
+        <v>0.2251356344359756</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1341483701990178</v>
       </c>
       <c r="N2">
-        <v>0.4507157639650359</v>
+        <v>0.04263490523021751</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8024159514108717</v>
+        <v>0.484140152719192</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8066997045154451</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.55922788462351</v>
+        <v>2.428355027059126</v>
       </c>
       <c r="C3">
-        <v>0.4488308976563644</v>
+        <v>0.4663961124512355</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07292358493697826</v>
+        <v>0.07346047753937235</v>
       </c>
       <c r="F3">
-        <v>1.303581330849255</v>
+        <v>1.221544998758162</v>
       </c>
       <c r="G3">
-        <v>0.7999965963427229</v>
+        <v>0.6896186143416259</v>
       </c>
       <c r="H3">
-        <v>0.00225242359532063</v>
+        <v>0.001858415938410185</v>
       </c>
       <c r="I3">
-        <v>0.00126113968471131</v>
+        <v>0.0009534143889364799</v>
       </c>
       <c r="J3">
-        <v>0.5471790892900401</v>
+        <v>0.535283363276406</v>
       </c>
       <c r="K3">
-        <v>0.5223003520532856</v>
+        <v>0.4564609824660764</v>
       </c>
       <c r="L3">
-        <v>0.03906740394048924</v>
+        <v>0.2265011344014241</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1249238375488169</v>
       </c>
       <c r="N3">
-        <v>0.4003139296732456</v>
+        <v>0.03963408256689149</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8281590039452595</v>
+        <v>0.4296894108152287</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8242416323628916</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.327838113496625</v>
+        <v>2.213289651567891</v>
       </c>
       <c r="C4">
-        <v>0.4115511354299883</v>
+        <v>0.4257507351042022</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07000661127531593</v>
+        <v>0.07076521163657823</v>
       </c>
       <c r="F4">
-        <v>1.241653250156162</v>
+        <v>1.167361387870542</v>
       </c>
       <c r="G4">
-        <v>0.757861460933384</v>
+        <v>0.6567595008759071</v>
       </c>
       <c r="H4">
-        <v>0.003350386867510102</v>
+        <v>0.002778165347599226</v>
       </c>
       <c r="I4">
-        <v>0.001983269999641823</v>
+        <v>0.001431684063425642</v>
       </c>
       <c r="J4">
-        <v>0.5305252097701185</v>
+        <v>0.5199800325057566</v>
       </c>
       <c r="K4">
-        <v>0.510666906358388</v>
+        <v>0.4493427545750031</v>
       </c>
       <c r="L4">
-        <v>0.03768789431946473</v>
+        <v>0.2272430131297227</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1199812776736024</v>
       </c>
       <c r="N4">
-        <v>0.3694941760821848</v>
+        <v>0.03778186557905983</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8446167233206054</v>
+        <v>0.3964389813331337</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8357564010009249</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.231893309790564</v>
+        <v>2.123946192555366</v>
       </c>
       <c r="C5">
-        <v>0.3967279646295196</v>
+        <v>0.4095804957566429</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06881645842622497</v>
+        <v>0.06966610322803923</v>
       </c>
       <c r="F5">
-        <v>1.215729449187165</v>
+        <v>1.144586680764817</v>
       </c>
       <c r="G5">
-        <v>0.7398792355737811</v>
+        <v>0.6426164310007323</v>
       </c>
       <c r="H5">
-        <v>0.003874498290251993</v>
+        <v>0.003218148443552171</v>
       </c>
       <c r="I5">
-        <v>0.002427337329442114</v>
+        <v>0.001772394524540921</v>
       </c>
       <c r="J5">
-        <v>0.5233493140625995</v>
+        <v>0.5132863194071149</v>
       </c>
       <c r="K5">
-        <v>0.5053859986815397</v>
+        <v>0.445928808358012</v>
       </c>
       <c r="L5">
-        <v>0.03714024357378598</v>
+        <v>0.2272703725348144</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1179864975940461</v>
       </c>
       <c r="N5">
-        <v>0.3572178950994953</v>
+        <v>0.03705461504338636</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.851613463463611</v>
+        <v>0.3831883139850163</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8408368643319974</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.214090237712583</v>
+        <v>2.107320819589177</v>
       </c>
       <c r="C6">
-        <v>0.3946660476289878</v>
+        <v>0.4073074513411825</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06862039593266545</v>
+        <v>0.06948595437809502</v>
       </c>
       <c r="F6">
-        <v>1.21039681483208</v>
+        <v>1.139833467074311</v>
       </c>
       <c r="G6">
-        <v>0.7357351635415057</v>
+        <v>0.639212557645493</v>
       </c>
       <c r="H6">
-        <v>0.003969752555740835</v>
+        <v>0.003298195796628156</v>
       </c>
       <c r="I6">
-        <v>0.002603365436337768</v>
+        <v>0.00194626090208061</v>
       </c>
       <c r="J6">
-        <v>0.5215714842208428</v>
+        <v>0.5116120542417661</v>
       </c>
       <c r="K6">
-        <v>0.5037681438225903</v>
+        <v>0.4446996202305513</v>
       </c>
       <c r="L6">
-        <v>0.03707524776847393</v>
+        <v>0.2269682334741638</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1174708669630817</v>
       </c>
       <c r="N6">
-        <v>0.3554938389503093</v>
+        <v>0.03697101170415706</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8529480549935009</v>
+        <v>0.3813057749967612</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8419464230503628</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.321436304001054</v>
+        <v>2.204947058392975</v>
       </c>
       <c r="C7">
-        <v>0.412438657121811</v>
+        <v>0.425408369022648</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06999545311260569</v>
+        <v>0.07086486713013151</v>
       </c>
       <c r="F7">
-        <v>1.238467379902204</v>
+        <v>1.163007863330037</v>
       </c>
       <c r="G7">
-        <v>0.7544278735451826</v>
+        <v>0.6571126268402452</v>
       </c>
       <c r="H7">
-        <v>0.003366688834782861</v>
+        <v>0.002796608775475828</v>
       </c>
       <c r="I7">
-        <v>0.002238983955622942</v>
+        <v>0.001731215997834212</v>
       </c>
       <c r="J7">
-        <v>0.5288106007308215</v>
+        <v>0.5114945317680935</v>
       </c>
       <c r="K7">
-        <v>0.5085592576329034</v>
+        <v>0.4466478757491679</v>
       </c>
       <c r="L7">
-        <v>0.03775287584163145</v>
+        <v>0.2260485801236953</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1191522486144656</v>
       </c>
       <c r="N7">
-        <v>0.3701846559322348</v>
+        <v>0.03793078900297253</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8451727715085475</v>
+        <v>0.3973086657149878</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8368953868086066</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.798906387053194</v>
+        <v>2.6428860237462</v>
       </c>
       <c r="C8">
-        <v>0.4902475751772783</v>
+        <v>0.5073164685647953</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07603607176503679</v>
+        <v>0.07670098338426534</v>
       </c>
       <c r="F8">
-        <v>1.366490823268592</v>
+        <v>1.271656117303749</v>
       </c>
       <c r="G8">
-        <v>0.8412471780962107</v>
+        <v>0.7328250297501739</v>
       </c>
       <c r="H8">
-        <v>0.001350286813430079</v>
+        <v>0.001114831472661226</v>
       </c>
       <c r="I8">
-        <v>0.001054916152604335</v>
+        <v>0.001008624651814394</v>
       </c>
       <c r="J8">
-        <v>0.5631498783870086</v>
+        <v>0.527050779188059</v>
       </c>
       <c r="K8">
-        <v>0.5322708058192873</v>
+        <v>0.4590359382379035</v>
       </c>
       <c r="L8">
-        <v>0.04061466283698323</v>
+        <v>0.2234569459747675</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1291125349434168</v>
       </c>
       <c r="N8">
-        <v>0.4344493108704341</v>
+        <v>0.04193818768555602</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8118403567443764</v>
+        <v>0.4670997286057599</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8149436425344305</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.74183279242709</v>
+        <v>3.511594687826744</v>
       </c>
       <c r="C9">
-        <v>0.6431069406412178</v>
+        <v>0.67306374570137</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08786658245286816</v>
+        <v>0.08771333077442378</v>
       </c>
       <c r="F9">
-        <v>1.628870681572721</v>
+        <v>1.498711459506268</v>
       </c>
       <c r="G9">
-        <v>1.022965553546172</v>
+        <v>0.8787227509477731</v>
       </c>
       <c r="H9">
-        <v>5.672037773463146E-06</v>
+        <v>6.407370334304829E-06</v>
       </c>
       <c r="I9">
-        <v>0.001099902426362931</v>
+        <v>0.001290401658777363</v>
       </c>
       <c r="J9">
-        <v>0.636939212274342</v>
+        <v>0.5850564343070488</v>
       </c>
       <c r="K9">
-        <v>0.5850624274811977</v>
+        <v>0.490838343570914</v>
       </c>
       <c r="L9">
-        <v>0.04589050509662584</v>
+        <v>0.220335131252142</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1565036799834125</v>
       </c>
       <c r="N9">
-        <v>0.5601441352150118</v>
+        <v>0.04933297098206779</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7509286037018192</v>
+        <v>0.6033679847336941</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7752884742494928</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.410103396932357</v>
+        <v>4.111610381255332</v>
       </c>
       <c r="C10">
-        <v>0.7597632771856695</v>
+        <v>0.7913804465709688</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09447318696532747</v>
+        <v>0.0942789841833509</v>
       </c>
       <c r="F10">
-        <v>1.800549134321329</v>
+        <v>1.637558258320865</v>
       </c>
       <c r="G10">
-        <v>1.145303969718896</v>
+        <v>0.997461940342518</v>
       </c>
       <c r="H10">
-        <v>0.0009835799179191973</v>
+        <v>0.0008596767183952636</v>
       </c>
       <c r="I10">
-        <v>0.003161165701983215</v>
+        <v>0.003101659012752833</v>
       </c>
       <c r="J10">
-        <v>0.6859574124474079</v>
+        <v>0.5832513707002818</v>
       </c>
       <c r="K10">
-        <v>0.6168004811293955</v>
+        <v>0.5034032414565388</v>
       </c>
       <c r="L10">
-        <v>0.05048233347672415</v>
+        <v>0.2133795145703701</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1756756383416196</v>
       </c>
       <c r="N10">
-        <v>0.637245363907482</v>
+        <v>0.05633214172182832</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7130823486480047</v>
+        <v>0.6885237250082952</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7575549130686454</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.516035717875013</v>
+        <v>4.190276463737007</v>
       </c>
       <c r="C11">
-        <v>0.8302642346912421</v>
+        <v>0.8453088810371412</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08156705787833651</v>
+        <v>0.08141417587237321</v>
       </c>
       <c r="F11">
-        <v>1.665647416345337</v>
+        <v>1.496785442300521</v>
       </c>
       <c r="G11">
-        <v>1.075302675562781</v>
+        <v>0.9812221985487355</v>
       </c>
       <c r="H11">
-        <v>0.01964064040033264</v>
+        <v>0.0194586729976578</v>
       </c>
       <c r="I11">
-        <v>0.004384706109132885</v>
+        <v>0.004249428099378783</v>
       </c>
       <c r="J11">
-        <v>0.6456404966680509</v>
+        <v>0.4756911208199739</v>
       </c>
       <c r="K11">
-        <v>0.560248766538173</v>
+        <v>0.4469109939143223</v>
       </c>
       <c r="L11">
-        <v>0.06253042861213842</v>
+        <v>0.188505338784406</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.15953868000976</v>
       </c>
       <c r="N11">
-        <v>0.5350680235708438</v>
+        <v>0.07366566283993592</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7294735142927067</v>
+        <v>0.5824864650418391</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7989495480767204</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.46964916848026</v>
+        <v>4.144024536399684</v>
       </c>
       <c r="C12">
-        <v>0.8637870279202957</v>
+        <v>0.8686335223903257</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07305959505668636</v>
+        <v>0.07219349070755943</v>
       </c>
       <c r="F12">
-        <v>1.523523035991118</v>
+        <v>1.361840260652386</v>
       </c>
       <c r="G12">
-        <v>0.996514819824398</v>
+        <v>0.9334752505681649</v>
       </c>
       <c r="H12">
-        <v>0.05820372213453595</v>
+        <v>0.05802429011125554</v>
       </c>
       <c r="I12">
-        <v>0.004475369247297856</v>
+        <v>0.004301396355076648</v>
       </c>
       <c r="J12">
-        <v>0.6041501384262205</v>
+        <v>0.415349675023279</v>
       </c>
       <c r="K12">
-        <v>0.5106889590117305</v>
+        <v>0.4042294090845147</v>
       </c>
       <c r="L12">
-        <v>0.07547915651120363</v>
+        <v>0.1721231939566614</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1443413355717524</v>
       </c>
       <c r="N12">
-        <v>0.4399336832083947</v>
+        <v>0.09032386532079784</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7571315856786427</v>
+        <v>0.48172493937723</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8411336693559264</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.295513001879556</v>
+        <v>3.997442285825514</v>
       </c>
       <c r="C13">
-        <v>0.8720655052646009</v>
+        <v>0.8749387058115019</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06739455197104016</v>
+        <v>0.06550471778666234</v>
       </c>
       <c r="F13">
-        <v>1.363714352745589</v>
+        <v>1.221901804854397</v>
       </c>
       <c r="G13">
-        <v>0.9014386529594702</v>
+        <v>0.84626889606389</v>
       </c>
       <c r="H13">
-        <v>0.1136791511587489</v>
+        <v>0.1135515192656698</v>
       </c>
       <c r="I13">
-        <v>0.003994984274068081</v>
+        <v>0.003911503443188025</v>
       </c>
       <c r="J13">
-        <v>0.5568022965406669</v>
+        <v>0.3910726509995328</v>
       </c>
       <c r="K13">
-        <v>0.4604823585389113</v>
+        <v>0.3678743179859758</v>
       </c>
       <c r="L13">
-        <v>0.0898120587022504</v>
+        <v>0.1600248030246441</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1287569964541326</v>
       </c>
       <c r="N13">
-        <v>0.346694022436381</v>
+        <v>0.1065587260406602</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7948322375264212</v>
+        <v>0.3811583204862217</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.882946064761029</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.115131397460004</v>
+        <v>3.848044718084395</v>
       </c>
       <c r="C14">
-        <v>0.8667786572449074</v>
+        <v>0.8719577337217288</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06521587531234618</v>
+        <v>0.06273909416635082</v>
       </c>
       <c r="F14">
-        <v>1.244777779247585</v>
+        <v>1.121609918533352</v>
       </c>
       <c r="G14">
-        <v>0.8275432349781795</v>
+        <v>0.768946601276312</v>
       </c>
       <c r="H14">
-        <v>0.1627992321422198</v>
+        <v>0.1627185639346607</v>
       </c>
       <c r="I14">
-        <v>0.003521312442140712</v>
+        <v>0.0035598699576882</v>
       </c>
       <c r="J14">
-        <v>0.5209743399741598</v>
+        <v>0.3873651987564841</v>
       </c>
       <c r="K14">
-        <v>0.4251131281718727</v>
+        <v>0.3447220386725931</v>
       </c>
       <c r="L14">
-        <v>0.1009236350140839</v>
+        <v>0.1530799247549268</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1176749908313006</v>
       </c>
       <c r="N14">
-        <v>0.2842938958842467</v>
+        <v>0.1179201338920848</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8265294182597884</v>
+        <v>0.3131709762690491</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.9120795535863664</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.04266795046783</v>
+        <v>3.788326093481942</v>
       </c>
       <c r="C15">
-        <v>0.8604978045671601</v>
+        <v>0.8678145532130657</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06478888324278254</v>
+        <v>0.06224442745944647</v>
       </c>
       <c r="F15">
-        <v>1.210952416744632</v>
+        <v>1.094505125693871</v>
       </c>
       <c r="G15">
-        <v>0.8050226871236816</v>
+        <v>0.7421410099753984</v>
       </c>
       <c r="H15">
-        <v>0.1752161818259594</v>
+        <v>0.1751536191233782</v>
       </c>
       <c r="I15">
-        <v>0.003410560177377064</v>
+        <v>0.003521202954323677</v>
       </c>
       <c r="J15">
-        <v>0.5104850522220374</v>
+        <v>0.3917224175394693</v>
       </c>
       <c r="K15">
-        <v>0.4156004433056211</v>
+        <v>0.3394095202646419</v>
       </c>
       <c r="L15">
-        <v>0.1034979342517133</v>
+        <v>0.1518217075518606</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1146128732541563</v>
       </c>
       <c r="N15">
-        <v>0.2687334750004595</v>
+        <v>0.1201271064025065</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8359090940768041</v>
+        <v>0.2959973731362311</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.9186677829275141</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.791522346581758</v>
+        <v>3.581197609313733</v>
       </c>
       <c r="C16">
-        <v>0.8083018133709174</v>
+        <v>0.8281126010114122</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06315425604647795</v>
+        <v>0.06107169194740925</v>
       </c>
       <c r="F16">
-        <v>1.171177646600299</v>
+        <v>1.073634567341557</v>
       </c>
       <c r="G16">
-        <v>0.7711347053006534</v>
+        <v>0.6802208054862575</v>
       </c>
       <c r="H16">
-        <v>0.1621037041118853</v>
+        <v>0.1620953879872218</v>
       </c>
       <c r="I16">
-        <v>0.002648956347790055</v>
+        <v>0.002946134960306601</v>
       </c>
       <c r="J16">
-        <v>0.4985189718369156</v>
+        <v>0.4406772941069192</v>
       </c>
       <c r="K16">
-        <v>0.4116013385629458</v>
+        <v>0.3456794357204878</v>
       </c>
       <c r="L16">
-        <v>0.09825267789516801</v>
+        <v>0.1572458874733762</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1123465615681134</v>
       </c>
       <c r="N16">
-        <v>0.2577666248570694</v>
+        <v>0.1114699737681732</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8416397436516547</v>
+        <v>0.2824397873327484</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.9060236875726702</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.694241626442533</v>
+        <v>3.497809490115856</v>
       </c>
       <c r="C17">
-        <v>0.7713348195463823</v>
+        <v>0.7970866033913353</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06272170164217317</v>
+        <v>0.06101607991365798</v>
       </c>
       <c r="F17">
-        <v>1.202867596081788</v>
+        <v>1.109027947463645</v>
       </c>
       <c r="G17">
-        <v>0.7839743799104184</v>
+        <v>0.6774095134985316</v>
       </c>
       <c r="H17">
-        <v>0.1241842453490705</v>
+        <v>0.1241843705735448</v>
       </c>
       <c r="I17">
-        <v>0.002365676714543241</v>
+        <v>0.002729762593963514</v>
       </c>
       <c r="J17">
-        <v>0.5082188362453053</v>
+        <v>0.475209197418522</v>
       </c>
       <c r="K17">
-        <v>0.4269912807542937</v>
+        <v>0.3621022243548815</v>
       </c>
       <c r="L17">
-        <v>0.08807568958033585</v>
+        <v>0.1652020945328267</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1159688246584629</v>
       </c>
       <c r="N17">
-        <v>0.2812621739741274</v>
+        <v>0.09916082614422095</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8293218085960632</v>
+        <v>0.3068353157307655</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8834820990726655</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.72149314167018</v>
+        <v>3.5200667455955</v>
       </c>
       <c r="C18">
-        <v>0.742249205915698</v>
+        <v>0.7720337958196808</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06513221297428018</v>
+        <v>0.06371814270261389</v>
       </c>
       <c r="F18">
-        <v>1.304044138052674</v>
+        <v>1.203644083136084</v>
       </c>
       <c r="G18">
-        <v>0.8416327146370435</v>
+        <v>0.7199184122305837</v>
       </c>
       <c r="H18">
-        <v>0.07133756912629252</v>
+        <v>0.07133776227377808</v>
       </c>
       <c r="I18">
-        <v>0.002077275019853886</v>
+        <v>0.00240707174318544</v>
       </c>
       <c r="J18">
-        <v>0.5391641318959586</v>
+        <v>0.512899580727364</v>
       </c>
       <c r="K18">
-        <v>0.4632126290803456</v>
+        <v>0.3926700770587246</v>
       </c>
       <c r="L18">
-        <v>0.07407919523235407</v>
+        <v>0.177657532597074</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1261890749024808</v>
       </c>
       <c r="N18">
-        <v>0.3413070751165463</v>
+        <v>0.08335215808730823</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8020021976969431</v>
+        <v>0.3707106718446767</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8490419784992866</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.83723070333582</v>
+        <v>3.6185261923643</v>
       </c>
       <c r="C19">
-        <v>0.7240332471745035</v>
+        <v>0.7572953095394155</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07241545764254287</v>
+        <v>0.07126335971426023</v>
       </c>
       <c r="F19">
-        <v>1.454028930901757</v>
+        <v>1.340019507658667</v>
       </c>
       <c r="G19">
-        <v>0.9279888465465262</v>
+        <v>0.7898112808531579</v>
       </c>
       <c r="H19">
-        <v>0.02616951177429883</v>
+        <v>0.02616771911575455</v>
       </c>
       <c r="I19">
-        <v>0.002304633641797338</v>
+        <v>0.002644363022264784</v>
       </c>
       <c r="J19">
-        <v>0.5831934663678737</v>
+        <v>0.5532228128830923</v>
       </c>
       <c r="K19">
-        <v>0.5123189814039861</v>
+        <v>0.4316848352562843</v>
       </c>
       <c r="L19">
-        <v>0.06104754397569678</v>
+        <v>0.1925356887000547</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1406810493601469</v>
       </c>
       <c r="N19">
-        <v>0.4352336933594927</v>
+        <v>0.06851743160928692</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7712330110238739</v>
+        <v>0.4708156563502968</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.8128470834901833</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.217226670663763</v>
+        <v>3.946476552557215</v>
       </c>
       <c r="C20">
-        <v>0.7325296983783858</v>
+        <v>0.7684780623971506</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.092651503072533</v>
+        <v>0.09208282648325827</v>
       </c>
       <c r="F20">
-        <v>1.745222256207356</v>
+        <v>1.596638296624832</v>
       </c>
       <c r="G20">
-        <v>1.102206725260501</v>
+        <v>0.9436232673279221</v>
       </c>
       <c r="H20">
-        <v>0.0005693914892677121</v>
+        <v>0.0005078698825826677</v>
       </c>
       <c r="I20">
-        <v>0.003190398486774271</v>
+        <v>0.003410730885378577</v>
       </c>
       <c r="J20">
-        <v>0.6675459121039324</v>
+        <v>0.6024846635084344</v>
       </c>
       <c r="K20">
-        <v>0.6016603349463026</v>
+        <v>0.4972566791089008</v>
       </c>
       <c r="L20">
-        <v>0.04957373962566081</v>
+        <v>0.214178872575058</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1693475895237846</v>
       </c>
       <c r="N20">
-        <v>0.6189531843404552</v>
+        <v>0.05467914786904515</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7249149163119988</v>
+        <v>0.6674208795174792</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7633936798868532</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.76707502481247</v>
+        <v>4.392607117048328</v>
       </c>
       <c r="C21">
-        <v>0.8196424457291585</v>
+        <v>0.8328320848999908</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1011112446112357</v>
+        <v>0.1028555293881581</v>
       </c>
       <c r="F21">
-        <v>1.918593484011339</v>
+        <v>1.714012216431058</v>
       </c>
       <c r="G21">
-        <v>1.221920022926014</v>
+        <v>1.126238435689629</v>
       </c>
       <c r="H21">
-        <v>0.001824637984289001</v>
+        <v>0.00149217793344314</v>
       </c>
       <c r="I21">
-        <v>0.005399692458199823</v>
+        <v>0.005116567398101068</v>
       </c>
       <c r="J21">
-        <v>0.7181525699199369</v>
+        <v>0.4952606574903484</v>
       </c>
       <c r="K21">
-        <v>0.6405820341165267</v>
+        <v>0.5027961259852134</v>
       </c>
       <c r="L21">
-        <v>0.05178108447316632</v>
+        <v>0.2074621789804532</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1831707343155173</v>
       </c>
       <c r="N21">
-        <v>0.7038437677130531</v>
+        <v>0.05951775725527497</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6922794694427168</v>
+        <v>0.7639399958821116</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7544517390804302</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.122847467215195</v>
+        <v>4.676345812491661</v>
       </c>
       <c r="C22">
-        <v>0.8766094774156841</v>
+        <v>0.8725767791092665</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.105570274345073</v>
+        <v>0.109118570272809</v>
       </c>
       <c r="F22">
-        <v>2.024412657852196</v>
+        <v>1.781310851876313</v>
       </c>
       <c r="G22">
-        <v>1.298391985398922</v>
+        <v>1.253992826469215</v>
       </c>
       <c r="H22">
-        <v>0.003125530177897184</v>
+        <v>0.002516180546977997</v>
       </c>
       <c r="I22">
-        <v>0.007002738055875035</v>
+        <v>0.006176558174578517</v>
       </c>
       <c r="J22">
-        <v>0.7504112535266643</v>
+        <v>0.4255137661386357</v>
       </c>
       <c r="K22">
-        <v>0.6650851553553849</v>
+        <v>0.5044265939998809</v>
       </c>
       <c r="L22">
-        <v>0.05351174403616987</v>
+        <v>0.2024429882643801</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1917990236129441</v>
       </c>
       <c r="N22">
-        <v>0.7499537584407534</v>
+        <v>0.0632810559465895</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6723356126377382</v>
+        <v>0.8175357777422221</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.751684005239845</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.939223957529066</v>
+        <v>4.537236137022774</v>
       </c>
       <c r="C23">
-        <v>0.8448089333986388</v>
+        <v>0.8533786994590571</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.103180294428407</v>
+        <v>0.1054150003471701</v>
       </c>
       <c r="F23">
-        <v>1.971197288876283</v>
+        <v>1.752119205037772</v>
       </c>
       <c r="G23">
-        <v>1.261277868735931</v>
+        <v>1.178790428749011</v>
       </c>
       <c r="H23">
-        <v>0.002397941408101234</v>
+        <v>0.001951726630564865</v>
       </c>
       <c r="I23">
-        <v>0.005836745986987246</v>
+        <v>0.00526079458275408</v>
       </c>
       <c r="J23">
-        <v>0.7350481323215377</v>
+        <v>0.4775227816909933</v>
       </c>
       <c r="K23">
-        <v>0.6543613872341183</v>
+        <v>0.5076608139092116</v>
       </c>
       <c r="L23">
-        <v>0.05249550980319384</v>
+        <v>0.2065173757279197</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1888555641973042</v>
       </c>
       <c r="N23">
-        <v>0.7242754261342128</v>
+        <v>0.060916678683828</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.682099451367975</v>
+        <v>0.7872994993684017</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7502564139409387</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.234896932046013</v>
+        <v>3.962344705196358</v>
       </c>
       <c r="C24">
-        <v>0.7277545513302925</v>
+        <v>0.764095088439035</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09421983449675153</v>
+        <v>0.09367407465801847</v>
       </c>
       <c r="F24">
-        <v>1.766947900062021</v>
+        <v>1.616683163531334</v>
       </c>
       <c r="G24">
-        <v>1.117295847023428</v>
+        <v>0.9558974185446942</v>
       </c>
       <c r="H24">
-        <v>0.000487296575960805</v>
+        <v>0.0004224124860996437</v>
       </c>
       <c r="I24">
-        <v>0.002749822206840058</v>
+        <v>0.002865450902802102</v>
       </c>
       <c r="J24">
-        <v>0.6752406254042427</v>
+        <v>0.6103466502281805</v>
       </c>
       <c r="K24">
-        <v>0.6110658456330569</v>
+        <v>0.5051046064822415</v>
       </c>
       <c r="L24">
-        <v>0.04875663539421282</v>
+        <v>0.217182866424217</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1722415963965567</v>
       </c>
       <c r="N24">
-        <v>0.629232554524819</v>
+        <v>0.05349232954404926</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.721938193642309</v>
+        <v>0.6783703339262956</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7587424980841746</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.477415089196427</v>
+        <v>3.271634214421852</v>
       </c>
       <c r="C25">
-        <v>0.6034500869651254</v>
+        <v>0.6317716236890192</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0846685139266814</v>
+        <v>0.08458720178880874</v>
       </c>
       <c r="F25">
-        <v>1.551958337456057</v>
+        <v>1.433911585538809</v>
       </c>
       <c r="G25">
-        <v>0.9672628047825071</v>
+        <v>0.8283747712183214</v>
       </c>
       <c r="H25">
-        <v>6.488047121688822E-05</v>
+        <v>4.877625728472168E-05</v>
       </c>
       <c r="I25">
-        <v>0.001168210977428252</v>
+        <v>0.001451667941113399</v>
       </c>
       <c r="J25">
-        <v>0.6136140348048116</v>
+        <v>0.5762513289517273</v>
       </c>
       <c r="K25">
-        <v>0.5667742364766326</v>
+        <v>0.4800550320574857</v>
       </c>
       <c r="L25">
-        <v>0.0446229600605843</v>
+        <v>0.2204746925652223</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1477070344176425</v>
       </c>
       <c r="N25">
-        <v>0.5275533989970143</v>
+        <v>0.04745895919037935</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7678629655237046</v>
+        <v>0.5676236242090482</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7863467417354855</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
